--- a/test_cases/PE-16/TC-1601.xlsx
+++ b/test_cases/PE-16/TC-1601.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Santi\Desktop\Test_Cases\PE-16\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\.Proyectos\TestingAplicaciones-TestUADE-TPO\test_cases\PE-16\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DF451425-987A-40F9-ACC8-18D1529E95DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2C176D6-E9EE-40C5-95CB-C055B511923D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DCE1F527-8622-40D5-806A-6A7E2BCE07A3}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DCE1F527-8622-40D5-806A-6A7E2BCE07A3}"/>
   </bookViews>
   <sheets>
     <sheet name="TC - Template" sheetId="1" r:id="rId1"/>
@@ -182,18 +182,9 @@
     <t>Adress = entre independencia y Chile</t>
   </si>
   <si>
-    <t>City = Quilmes</t>
-  </si>
-  <si>
-    <t>State = Buenos Aires</t>
-  </si>
-  <si>
     <t>Postal = 6435</t>
   </si>
   <si>
-    <t>Country = Argentina</t>
-  </si>
-  <si>
     <t>Phone = 1126547843</t>
   </si>
   <si>
@@ -225,6 +216,15 @@
   </si>
   <si>
     <t xml:space="preserve">Test user can be created </t>
+  </si>
+  <si>
+    <t>Country = EEUU</t>
+  </si>
+  <si>
+    <t>State = Florida</t>
+  </si>
+  <si>
+    <t>City = Miami</t>
   </si>
 </sst>
 </file>
@@ -735,64 +735,64 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="7" xfId="4" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="7" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="20" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="21" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="20" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="21" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="7" xfId="4" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="7" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1115,8 +1115,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F3CCAC7-6C0E-44CD-ADA1-CF7A0722318C}">
   <dimension ref="A1:W68"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39:L73"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1142,37 +1142,37 @@
         <v>0</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="33" t="s">
-        <v>62</v>
-      </c>
-      <c r="E1" s="34"/>
+      <c r="D1" s="47" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1" s="48"/>
     </row>
     <row r="2" spans="1:23" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C2" s="20" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="27"/>
-      <c r="G2" s="51" t="s">
+      <c r="G2" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="51"/>
-      <c r="I2" s="51"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="51"/>
-      <c r="L2" s="51"/>
-      <c r="M2" s="51"/>
-      <c r="N2" s="51"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="44"/>
+      <c r="J2" s="44"/>
+      <c r="K2" s="44"/>
+      <c r="L2" s="44"/>
+      <c r="M2" s="44"/>
+      <c r="N2" s="44"/>
     </row>
     <row r="3" spans="1:23" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
@@ -1184,44 +1184,44 @@
         <v>5</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F3" s="1"/>
-      <c r="G3" s="49" t="s">
+      <c r="G3" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="49"/>
-      <c r="I3" s="49" t="s">
+      <c r="H3" s="42"/>
+      <c r="I3" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="J3" s="49"/>
-      <c r="K3" s="49" t="s">
+      <c r="J3" s="42"/>
+      <c r="K3" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="L3" s="49"/>
-      <c r="M3" s="49" t="s">
+      <c r="L3" s="42"/>
+      <c r="M3" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="N3" s="49"/>
+      <c r="N3" s="42"/>
     </row>
     <row r="4" spans="1:23" ht="14.45" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F4" s="2"/>
-      <c r="G4" s="47" t="s">
+      <c r="G4" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="H4" s="48"/>
-      <c r="I4" s="47" t="s">
+      <c r="H4" s="46"/>
+      <c r="I4" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="J4" s="48"/>
-      <c r="K4" s="47" t="s">
+      <c r="J4" s="46"/>
+      <c r="K4" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="L4" s="48"/>
-      <c r="M4" s="47" t="s">
+      <c r="L4" s="46"/>
+      <c r="M4" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="N4" s="48"/>
+      <c r="N4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="34.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
@@ -1387,7 +1387,7 @@
         <v>3</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D10" s="4">
         <v>3</v>
@@ -1444,22 +1444,22 @@
         <v>44</v>
       </c>
       <c r="F13" s="1"/>
-      <c r="G13" s="50" t="s">
+      <c r="G13" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="H13" s="50"/>
-      <c r="I13" s="50" t="s">
+      <c r="H13" s="43"/>
+      <c r="I13" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="J13" s="50"/>
-      <c r="K13" s="50" t="s">
+      <c r="J13" s="43"/>
+      <c r="K13" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="L13" s="50"/>
-      <c r="M13" s="50" t="s">
+      <c r="L13" s="43"/>
+      <c r="M13" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="N13" s="50"/>
+      <c r="N13" s="43"/>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" s="30"/>
@@ -1471,14 +1471,14 @@
         <v>45</v>
       </c>
       <c r="F14" s="1"/>
-      <c r="G14" s="52"/>
-      <c r="H14" s="52"/>
-      <c r="I14" s="52"/>
-      <c r="J14" s="52"/>
-      <c r="K14" s="52"/>
-      <c r="L14" s="52"/>
-      <c r="M14" s="52"/>
-      <c r="N14" s="52"/>
+      <c r="G14" s="41"/>
+      <c r="H14" s="41"/>
+      <c r="I14" s="41"/>
+      <c r="J14" s="41"/>
+      <c r="K14" s="41"/>
+      <c r="L14" s="41"/>
+      <c r="M14" s="41"/>
+      <c r="N14" s="41"/>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15" s="30"/>
@@ -1490,14 +1490,14 @@
         <v>46</v>
       </c>
       <c r="F15" s="1"/>
-      <c r="G15" s="52"/>
-      <c r="H15" s="52"/>
-      <c r="I15" s="52"/>
-      <c r="J15" s="52"/>
-      <c r="K15" s="52"/>
-      <c r="L15" s="52"/>
-      <c r="M15" s="52"/>
-      <c r="N15" s="52"/>
+      <c r="G15" s="41"/>
+      <c r="H15" s="41"/>
+      <c r="I15" s="41"/>
+      <c r="J15" s="41"/>
+      <c r="K15" s="41"/>
+      <c r="L15" s="41"/>
+      <c r="M15" s="41"/>
+      <c r="N15" s="41"/>
     </row>
     <row r="16" spans="1:23" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A16" s="30"/>
@@ -1509,14 +1509,14 @@
         <v>47</v>
       </c>
       <c r="F16" s="1"/>
-      <c r="G16" s="52"/>
-      <c r="H16" s="52"/>
-      <c r="I16" s="52"/>
-      <c r="J16" s="52"/>
-      <c r="K16" s="52"/>
-      <c r="L16" s="52"/>
-      <c r="M16" s="52"/>
-      <c r="N16" s="52"/>
+      <c r="G16" s="41"/>
+      <c r="H16" s="41"/>
+      <c r="I16" s="41"/>
+      <c r="J16" s="41"/>
+      <c r="K16" s="41"/>
+      <c r="L16" s="41"/>
+      <c r="M16" s="41"/>
+      <c r="N16" s="41"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="30"/>
@@ -1525,17 +1525,17 @@
         <v>10</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="F17" s="1"/>
-      <c r="G17" s="52"/>
-      <c r="H17" s="52"/>
-      <c r="I17" s="52"/>
-      <c r="J17" s="52"/>
-      <c r="K17" s="52"/>
-      <c r="L17" s="52"/>
-      <c r="M17" s="52"/>
-      <c r="N17" s="52"/>
+      <c r="G17" s="41"/>
+      <c r="H17" s="41"/>
+      <c r="I17" s="41"/>
+      <c r="J17" s="41"/>
+      <c r="K17" s="41"/>
+      <c r="L17" s="41"/>
+      <c r="M17" s="41"/>
+      <c r="N17" s="41"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="30"/>
@@ -1544,17 +1544,17 @@
         <v>11</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="F18" s="1"/>
-      <c r="G18" s="52"/>
-      <c r="H18" s="52"/>
-      <c r="I18" s="52"/>
-      <c r="J18" s="52"/>
-      <c r="K18" s="52"/>
-      <c r="L18" s="52"/>
-      <c r="M18" s="52"/>
-      <c r="N18" s="52"/>
+      <c r="G18" s="41"/>
+      <c r="H18" s="41"/>
+      <c r="I18" s="41"/>
+      <c r="J18" s="41"/>
+      <c r="K18" s="41"/>
+      <c r="L18" s="41"/>
+      <c r="M18" s="41"/>
+      <c r="N18" s="41"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="30"/>
@@ -1563,7 +1563,7 @@
         <v>12</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F19" s="1"/>
     </row>
@@ -1574,7 +1574,7 @@
         <v>13</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="F20" s="1"/>
     </row>
@@ -1585,7 +1585,7 @@
         <v>14</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F21" s="1"/>
     </row>
@@ -1596,7 +1596,7 @@
         <v>15</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F22" s="1"/>
     </row>
@@ -1606,23 +1606,23 @@
       <c r="D23" s="1"/>
     </row>
     <row r="25" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="35" t="s">
+      <c r="A25" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="B25" s="37" t="s">
-        <v>53</v>
-      </c>
-      <c r="C25" s="38"/>
-      <c r="D25" s="38"/>
-      <c r="E25" s="39"/>
+      <c r="B25" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="C25" s="36"/>
+      <c r="D25" s="36"/>
+      <c r="E25" s="37"/>
       <c r="F25" s="1"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="36"/>
-      <c r="B26" s="40"/>
-      <c r="C26" s="41"/>
-      <c r="D26" s="41"/>
-      <c r="E26" s="42"/>
+      <c r="A26" s="34"/>
+      <c r="B26" s="38"/>
+      <c r="C26" s="39"/>
+      <c r="D26" s="39"/>
+      <c r="E26" s="40"/>
     </row>
     <row r="27" spans="1:14" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A27" s="22" t="s">
@@ -1643,14 +1643,14 @@
       <c r="A29" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="B29" s="43" t="s">
+      <c r="B29" s="51" t="s">
         <v>25</v>
       </c>
-      <c r="C29" s="44"/>
-      <c r="D29" s="45" t="s">
+      <c r="C29" s="52"/>
+      <c r="D29" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="E29" s="46"/>
+      <c r="E29" s="50"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="18">
@@ -1670,11 +1670,11 @@
         <v>2</v>
       </c>
       <c r="B31" s="31" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C31" s="32"/>
       <c r="D31" s="31" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E31" s="32"/>
     </row>
@@ -1687,7 +1687,7 @@
       </c>
       <c r="C32" s="32"/>
       <c r="D32" s="31" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E32" s="32"/>
     </row>
@@ -1724,43 +1724,6 @@
     <row r="68" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="50">
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="B25:E26"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="M18:N18"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="G2:N2"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="M17:N17"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="I13:J13"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="D29:E29"/>
     <mergeCell ref="B29:C29"/>
@@ -1774,6 +1737,43 @@
     <mergeCell ref="B30:C30"/>
     <mergeCell ref="D30:E30"/>
     <mergeCell ref="D31:E31"/>
+    <mergeCell ref="G2:N2"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B25:E26"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="K18:L18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -1781,18 +1781,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1928,18 +1928,18 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{86567253-966F-4F1D-B2AE-0608F592F601}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BCD417DE-AE4D-4310-B006-24C26EFB9650}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BCD417DE-AE4D-4310-B006-24C26EFB9650}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{86567253-966F-4F1D-B2AE-0608F592F601}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/test_cases/PE-16/TC-1601.xlsx
+++ b/test_cases/PE-16/TC-1601.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\.Proyectos\TestingAplicaciones-TestUADE-TPO\test_cases\PE-16\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Descargas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2C176D6-E9EE-40C5-95CB-C055B511923D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3187F1A8-A10F-4982-9F9E-F31270961769}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DCE1F527-8622-40D5-806A-6A7E2BCE07A3}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{DCE1F527-8622-40D5-806A-6A7E2BCE07A3}"/>
   </bookViews>
   <sheets>
     <sheet name="TC - Template" sheetId="1" r:id="rId1"/>
@@ -27,8 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="65">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -134,9 +132,6 @@
     <t>As Expected</t>
   </si>
   <si>
-    <t>Pass</t>
-  </si>
-  <si>
     <t>Not executed</t>
   </si>
   <si>
@@ -182,9 +177,18 @@
     <t>Adress = entre independencia y Chile</t>
   </si>
   <si>
+    <t>City = Quilmes</t>
+  </si>
+  <si>
+    <t>State = Buenos Aires</t>
+  </si>
+  <si>
     <t>Postal = 6435</t>
   </si>
   <si>
+    <t>Country = Argentina</t>
+  </si>
+  <si>
     <t>Phone = 1126547843</t>
   </si>
   <si>
@@ -218,13 +222,13 @@
     <t xml:space="preserve">Test user can be created </t>
   </si>
   <si>
-    <t>Country = EEUU</t>
-  </si>
-  <si>
-    <t>State = Florida</t>
-  </si>
-  <si>
-    <t>City = Miami</t>
+    <t>Indurain Moneo Ignacio</t>
+  </si>
+  <si>
+    <t>Falta un campo de informacion adicional</t>
+  </si>
+  <si>
+    <t>Falta un campo de fecha nacimiento</t>
   </si>
 </sst>
 </file>
@@ -639,7 +643,7 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -717,9 +721,6 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -794,6 +795,12 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1115,66 +1122,69 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F3CCAC7-6C0E-44CD-ADA1-CF7A0722318C}">
   <dimension ref="A1:W68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.140625" customWidth="1"/>
-    <col min="2" max="2" width="21.42578125" customWidth="1"/>
-    <col min="3" max="3" width="29.42578125" customWidth="1"/>
-    <col min="4" max="4" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28.5703125" customWidth="1"/>
-    <col min="6" max="6" width="13.85546875" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.28515625" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="38.42578125" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="29.42578125" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="18.28515625" customWidth="1"/>
+    <col min="1" max="1" width="11.109375" customWidth="1"/>
+    <col min="2" max="2" width="21.44140625" customWidth="1"/>
+    <col min="3" max="3" width="29.44140625" customWidth="1"/>
+    <col min="4" max="4" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.5546875" customWidth="1"/>
+    <col min="6" max="6" width="13.88671875" customWidth="1"/>
+    <col min="7" max="7" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.33203125" customWidth="1"/>
+    <col min="9" max="9" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="38.44140625" customWidth="1"/>
+    <col min="11" max="11" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="29.44140625" customWidth="1"/>
+    <col min="13" max="13" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="47" t="s">
-        <v>59</v>
-      </c>
-      <c r="E1" s="48"/>
-    </row>
-    <row r="2" spans="1:23" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D1" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1" s="47"/>
+    </row>
+    <row r="2" spans="1:23" ht="21.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C2" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="27"/>
-      <c r="G2" s="44" t="s">
+      <c r="D2" s="52" t="s">
+        <v>62</v>
+      </c>
+      <c r="E2" s="53"/>
+      <c r="G2" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="44"/>
-      <c r="I2" s="44"/>
-      <c r="J2" s="44"/>
-      <c r="K2" s="44"/>
-      <c r="L2" s="44"/>
-      <c r="M2" s="44"/>
-      <c r="N2" s="44"/>
-    </row>
-    <row r="3" spans="1:23" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="43"/>
+      <c r="L2" s="43"/>
+      <c r="M2" s="43"/>
+      <c r="N2" s="43"/>
+    </row>
+    <row r="3" spans="1:23" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="10" t="s">
         <v>4</v>
       </c>
@@ -1184,50 +1194,50 @@
         <v>5</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F3" s="1"/>
-      <c r="G3" s="42" t="s">
+      <c r="G3" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="42"/>
-      <c r="I3" s="42" t="s">
+      <c r="H3" s="41"/>
+      <c r="I3" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="J3" s="42"/>
-      <c r="K3" s="42" t="s">
+      <c r="J3" s="41"/>
+      <c r="K3" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="L3" s="42"/>
-      <c r="M3" s="42" t="s">
+      <c r="L3" s="41"/>
+      <c r="M3" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="N3" s="42"/>
-    </row>
-    <row r="4" spans="1:23" ht="14.45" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N3" s="41"/>
+    </row>
+    <row r="4" spans="1:23" ht="14.4" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F4" s="2"/>
-      <c r="G4" s="45" t="s">
+      <c r="G4" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="H4" s="46"/>
-      <c r="I4" s="45" t="s">
+      <c r="H4" s="45"/>
+      <c r="I4" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="J4" s="46"/>
-      <c r="K4" s="45" t="s">
+      <c r="J4" s="45"/>
+      <c r="K4" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="L4" s="46"/>
-      <c r="M4" s="45" t="s">
+      <c r="L4" s="45"/>
+      <c r="M4" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="N4" s="46"/>
-    </row>
-    <row r="5" spans="1:23" ht="34.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="29" t="s">
+      <c r="N4" s="45"/>
+    </row>
+    <row r="5" spans="1:23" ht="28.2" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="28" t="s">
+      <c r="B5" s="27" t="s">
         <v>7</v>
       </c>
       <c r="C5" s="2"/>
@@ -1264,31 +1274,27 @@
       <c r="V5" s="1"/>
       <c r="W5" s="1"/>
     </row>
-    <row r="6" spans="1:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G6" s="16" t="s">
         <v>31</v>
       </c>
       <c r="H6" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="I6" s="16" t="s">
-        <v>31</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="I6" s="16"/>
       <c r="J6" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="K6" s="16" t="s">
-        <v>31</v>
-      </c>
+      <c r="K6" s="16"/>
       <c r="L6" s="17" t="s">
         <v>32</v>
       </c>
       <c r="M6" s="16"/>
       <c r="N6" s="17" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A7" s="19" t="s">
         <v>8</v>
       </c>
@@ -1305,26 +1311,22 @@
         <v>31</v>
       </c>
       <c r="H7" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="I7" s="16" t="s">
-        <v>31</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="I7" s="16"/>
       <c r="J7" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="K7" s="16" t="s">
-        <v>31</v>
-      </c>
+      <c r="K7" s="16"/>
       <c r="L7" s="17" t="s">
         <v>32</v>
       </c>
       <c r="M7" s="16"/>
       <c r="N7" s="17" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="15">
         <v>1</v>
       </c>
@@ -1335,43 +1337,39 @@
         <v>1</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G8" s="16" t="s">
         <v>31</v>
       </c>
       <c r="H8" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="I8" s="16"/>
+      <c r="J8" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="I8" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="J8" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="K8" s="16" t="s">
-        <v>31</v>
-      </c>
+      <c r="K8" s="16"/>
       <c r="L8" s="17" t="s">
         <v>32</v>
       </c>
       <c r="M8" s="16"/>
       <c r="N8" s="17" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="15">
         <v>2</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D9" s="4">
         <v>2</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G9" s="5"/>
       <c r="H9" s="3"/>
@@ -1382,18 +1380,18 @@
       <c r="M9" s="5"/>
       <c r="N9" s="3"/>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A10" s="15">
         <v>3</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D10" s="4">
         <v>3</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G10" s="5"/>
       <c r="H10" s="3"/>
@@ -1404,14 +1402,14 @@
       <c r="M10" s="5"/>
       <c r="N10" s="3"/>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A11" s="30"/>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A11" s="29"/>
       <c r="B11" s="1"/>
       <c r="D11" s="4">
         <v>4</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="5"/>
@@ -1423,213 +1421,217 @@
       <c r="M11" s="5"/>
       <c r="N11" s="3"/>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A12" s="30"/>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A12" s="29"/>
       <c r="B12" s="1"/>
       <c r="D12" s="4">
         <v>5</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A13" s="30"/>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A13" s="29"/>
       <c r="B13" s="1"/>
       <c r="D13" s="4">
         <v>6</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F13" s="1"/>
-      <c r="G13" s="43" t="s">
-        <v>36</v>
-      </c>
-      <c r="H13" s="43"/>
-      <c r="I13" s="43" t="s">
-        <v>36</v>
-      </c>
-      <c r="J13" s="43"/>
-      <c r="K13" s="43" t="s">
-        <v>36</v>
-      </c>
-      <c r="L13" s="43"/>
-      <c r="M13" s="43" t="s">
-        <v>36</v>
-      </c>
-      <c r="N13" s="43"/>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A14" s="30"/>
+      <c r="G13" s="42" t="s">
+        <v>35</v>
+      </c>
+      <c r="H13" s="42"/>
+      <c r="I13" s="42" t="s">
+        <v>35</v>
+      </c>
+      <c r="J13" s="42"/>
+      <c r="K13" s="42" t="s">
+        <v>35</v>
+      </c>
+      <c r="L13" s="42"/>
+      <c r="M13" s="42" t="s">
+        <v>35</v>
+      </c>
+      <c r="N13" s="42"/>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A14" s="29"/>
       <c r="B14" s="1"/>
       <c r="D14" s="4">
         <v>7</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F14" s="1"/>
-      <c r="G14" s="41"/>
-      <c r="H14" s="41"/>
-      <c r="I14" s="41"/>
-      <c r="J14" s="41"/>
-      <c r="K14" s="41"/>
-      <c r="L14" s="41"/>
-      <c r="M14" s="41"/>
-      <c r="N14" s="41"/>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A15" s="30"/>
+      <c r="G14" s="40" t="s">
+        <v>63</v>
+      </c>
+      <c r="H14" s="40"/>
+      <c r="I14" s="40"/>
+      <c r="J14" s="40"/>
+      <c r="K14" s="40"/>
+      <c r="L14" s="40"/>
+      <c r="M14" s="40"/>
+      <c r="N14" s="40"/>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A15" s="29"/>
       <c r="B15" s="1"/>
       <c r="D15" s="4">
         <v>8</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F15" s="1"/>
-      <c r="G15" s="41"/>
-      <c r="H15" s="41"/>
-      <c r="I15" s="41"/>
-      <c r="J15" s="41"/>
-      <c r="K15" s="41"/>
-      <c r="L15" s="41"/>
-      <c r="M15" s="41"/>
-      <c r="N15" s="41"/>
-    </row>
-    <row r="16" spans="1:23" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="30"/>
+      <c r="G15" s="40" t="s">
+        <v>64</v>
+      </c>
+      <c r="H15" s="40"/>
+      <c r="I15" s="40"/>
+      <c r="J15" s="40"/>
+      <c r="K15" s="40"/>
+      <c r="L15" s="40"/>
+      <c r="M15" s="40"/>
+      <c r="N15" s="40"/>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A16" s="29"/>
       <c r="B16" s="1"/>
       <c r="D16" s="4">
         <v>9</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F16" s="1"/>
-      <c r="G16" s="41"/>
-      <c r="H16" s="41"/>
-      <c r="I16" s="41"/>
-      <c r="J16" s="41"/>
-      <c r="K16" s="41"/>
-      <c r="L16" s="41"/>
-      <c r="M16" s="41"/>
-      <c r="N16" s="41"/>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="30"/>
+      <c r="G16" s="40"/>
+      <c r="H16" s="40"/>
+      <c r="I16" s="40"/>
+      <c r="J16" s="40"/>
+      <c r="K16" s="40"/>
+      <c r="L16" s="40"/>
+      <c r="M16" s="40"/>
+      <c r="N16" s="40"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A17" s="29"/>
       <c r="B17" s="1"/>
       <c r="D17" s="4">
         <v>10</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="F17" s="1"/>
-      <c r="G17" s="41"/>
-      <c r="H17" s="41"/>
-      <c r="I17" s="41"/>
-      <c r="J17" s="41"/>
-      <c r="K17" s="41"/>
-      <c r="L17" s="41"/>
-      <c r="M17" s="41"/>
-      <c r="N17" s="41"/>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="30"/>
+      <c r="G17" s="40"/>
+      <c r="H17" s="40"/>
+      <c r="I17" s="40"/>
+      <c r="J17" s="40"/>
+      <c r="K17" s="40"/>
+      <c r="L17" s="40"/>
+      <c r="M17" s="40"/>
+      <c r="N17" s="40"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A18" s="29"/>
       <c r="B18" s="1"/>
       <c r="D18" s="4">
         <v>11</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="F18" s="1"/>
-      <c r="G18" s="41"/>
-      <c r="H18" s="41"/>
-      <c r="I18" s="41"/>
-      <c r="J18" s="41"/>
-      <c r="K18" s="41"/>
-      <c r="L18" s="41"/>
-      <c r="M18" s="41"/>
-      <c r="N18" s="41"/>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="30"/>
+      <c r="G18" s="40"/>
+      <c r="H18" s="40"/>
+      <c r="I18" s="40"/>
+      <c r="J18" s="40"/>
+      <c r="K18" s="40"/>
+      <c r="L18" s="40"/>
+      <c r="M18" s="40"/>
+      <c r="N18" s="40"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A19" s="29"/>
       <c r="B19" s="1"/>
       <c r="D19" s="4">
         <v>12</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F19" s="1"/>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="30"/>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A20" s="29"/>
       <c r="B20" s="1"/>
       <c r="D20" s="4">
         <v>13</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="F20" s="1"/>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="30"/>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A21" s="29"/>
       <c r="B21" s="1"/>
       <c r="D21" s="4">
         <v>14</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F21" s="1"/>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="30"/>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A22" s="29"/>
       <c r="B22" s="1"/>
       <c r="D22" s="4">
         <v>15</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F22" s="1"/>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" s="30"/>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A23" s="29"/>
       <c r="B23" s="1"/>
       <c r="D23" s="1"/>
     </row>
-    <row r="25" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="33" t="s">
+    <row r="25" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="B25" s="35" t="s">
-        <v>50</v>
-      </c>
-      <c r="C25" s="36"/>
-      <c r="D25" s="36"/>
-      <c r="E25" s="37"/>
+      <c r="B25" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="C25" s="35"/>
+      <c r="D25" s="35"/>
+      <c r="E25" s="36"/>
       <c r="F25" s="1"/>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="34"/>
-      <c r="B26" s="38"/>
-      <c r="C26" s="39"/>
-      <c r="D26" s="39"/>
-      <c r="E26" s="40"/>
-    </row>
-    <row r="27" spans="1:14" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A26" s="33"/>
+      <c r="B26" s="37"/>
+      <c r="C26" s="38"/>
+      <c r="D26" s="38"/>
+      <c r="E26" s="39"/>
+    </row>
+    <row r="27" spans="1:14" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A27" s="22" t="s">
         <v>14</v>
       </c>
       <c r="B27" s="23" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C27" s="24"/>
       <c r="D27" s="22" t="s">
@@ -1639,91 +1641,91 @@
         <v>16</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A29" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="B29" s="51" t="s">
+      <c r="B29" s="50" t="s">
         <v>25</v>
       </c>
-      <c r="C29" s="52"/>
-      <c r="D29" s="49" t="s">
+      <c r="C29" s="51"/>
+      <c r="D29" s="48" t="s">
         <v>26</v>
       </c>
-      <c r="E29" s="50"/>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E29" s="49"/>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A30" s="18">
         <v>1</v>
       </c>
-      <c r="B30" s="31" t="s">
+      <c r="B30" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="C30" s="32"/>
-      <c r="D30" s="31" t="s">
+      <c r="C30" s="31"/>
+      <c r="D30" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="E30" s="32"/>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E30" s="31"/>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A31" s="18">
         <v>2</v>
       </c>
-      <c r="B31" s="31" t="s">
+      <c r="B31" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="C31" s="31"/>
+      <c r="D31" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="C31" s="32"/>
-      <c r="D31" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="E31" s="32"/>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E31" s="31"/>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A32" s="18">
         <v>3</v>
       </c>
-      <c r="B32" s="31" t="s">
-        <v>34</v>
-      </c>
-      <c r="C32" s="32"/>
-      <c r="D32" s="31" t="s">
-        <v>51</v>
-      </c>
-      <c r="E32" s="32"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B32" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="C32" s="31"/>
+      <c r="D32" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="E32" s="31"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="18">
         <v>4</v>
       </c>
-      <c r="B33" s="31"/>
-      <c r="C33" s="32"/>
-      <c r="D33" s="31"/>
-      <c r="E33" s="32"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B33" s="30"/>
+      <c r="C33" s="31"/>
+      <c r="D33" s="30"/>
+      <c r="E33" s="31"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="18"/>
-      <c r="B34" s="31"/>
-      <c r="C34" s="32"/>
-      <c r="D34" s="31"/>
-      <c r="E34" s="32"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B34" s="30"/>
+      <c r="C34" s="31"/>
+      <c r="D34" s="30"/>
+      <c r="E34" s="31"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="18"/>
-      <c r="B35" s="31"/>
-      <c r="C35" s="32"/>
-      <c r="D35" s="31"/>
-      <c r="E35" s="32"/>
-    </row>
-    <row r="38" spans="1:5" ht="26.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="39" spans="1:5" ht="26.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="40" spans="1:5" ht="26.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="41" spans="1:5" ht="26.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="42" spans="1:5" ht="26.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="62" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="67" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="68" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="B35" s="30"/>
+      <c r="C35" s="31"/>
+      <c r="D35" s="30"/>
+      <c r="E35" s="31"/>
+    </row>
+    <row r="38" spans="1:5" ht="26.1" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="39" spans="1:5" ht="26.1" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="40" spans="1:5" ht="26.1" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="41" spans="1:5" ht="26.1" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="42" spans="1:5" ht="26.1" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="62" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="67" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="68" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <mergeCells count="50">
+  <mergeCells count="51">
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="D29:E29"/>
     <mergeCell ref="B29:C29"/>
@@ -1737,6 +1739,7 @@
     <mergeCell ref="B30:C30"/>
     <mergeCell ref="D30:E30"/>
     <mergeCell ref="D31:E31"/>
+    <mergeCell ref="D2:E2"/>
     <mergeCell ref="G2:N2"/>
     <mergeCell ref="I4:J4"/>
     <mergeCell ref="K4:L4"/>
@@ -1781,21 +1784,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
 </p:properties>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100F6A5A8B846BB61408BAC96912A48B9A8" ma:contentTypeVersion="2" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="e2efab9668351af1ee38b12b0ffd9ede">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="2835a775-56e5-473e-93b2-b8b6176d193a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2647aa4c78d06f7c1205c6a6e1c2c79d" ns2:_="">
     <xsd:import namespace="2835a775-56e5-473e-93b2-b8b6176d193a"/>
@@ -1927,15 +1921,16 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BCD417DE-AE4D-4310-B006-24C26EFB9650}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{86567253-966F-4F1D-B2AE-0608F592F601}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -1944,7 +1939,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6A3F87F2-577F-4B65-8FEE-A540B5E93770}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1960,4 +1955,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BCD417DE-AE4D-4310-B006-24C26EFB9650}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/test_cases/PE-16/TC-1601.xlsx
+++ b/test_cases/PE-16/TC-1601.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Descargas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3187F1A8-A10F-4982-9F9E-F31270961769}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A2D2246-7D1B-4A13-8CE5-10689601B340}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{DCE1F527-8622-40D5-806A-6A7E2BCE07A3}"/>
   </bookViews>
@@ -99,9 +99,6 @@
     <t>Regression 4</t>
   </si>
   <si>
-    <t>Tester: Sam Peters</t>
-  </si>
-  <si>
     <t>Tester: Jane Williams</t>
   </si>
   <si>
@@ -229,6 +226,9 @@
   </si>
   <si>
     <t>Falta un campo de fecha nacimiento</t>
+  </si>
+  <si>
+    <t>Tester: Indurain Moneo Ignacio</t>
   </si>
 </sst>
 </file>
@@ -730,12 +730,54 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="7" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="20" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="21" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="7" xfId="4" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -759,48 +801,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="7" xfId="4" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="7" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="20" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="21" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1123,7 +1123,7 @@
   <dimension ref="A1:W68"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1149,40 +1149,40 @@
         <v>0</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="46" t="s">
-        <v>61</v>
-      </c>
-      <c r="E1" s="47"/>
+      <c r="D1" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1" s="31"/>
     </row>
     <row r="2" spans="1:23" ht="21.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C2" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="52" t="s">
-        <v>62</v>
-      </c>
-      <c r="E2" s="53"/>
-      <c r="G2" s="43" t="s">
+      <c r="D2" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="E2" s="39"/>
+      <c r="G2" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="43"/>
-      <c r="I2" s="43"/>
-      <c r="J2" s="43"/>
-      <c r="K2" s="43"/>
-      <c r="L2" s="43"/>
-      <c r="M2" s="43"/>
-      <c r="N2" s="43"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="40"/>
+      <c r="K2" s="40"/>
+      <c r="L2" s="40"/>
+      <c r="M2" s="40"/>
+      <c r="N2" s="40"/>
     </row>
     <row r="3" spans="1:23" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="10" t="s">
@@ -1194,44 +1194,44 @@
         <v>5</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F3" s="1"/>
-      <c r="G3" s="41" t="s">
+      <c r="G3" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="41"/>
-      <c r="I3" s="41" t="s">
+      <c r="H3" s="44"/>
+      <c r="I3" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="J3" s="41"/>
-      <c r="K3" s="41" t="s">
+      <c r="J3" s="44"/>
+      <c r="K3" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="L3" s="41"/>
-      <c r="M3" s="41" t="s">
+      <c r="L3" s="44"/>
+      <c r="M3" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="N3" s="41"/>
+      <c r="N3" s="44"/>
     </row>
     <row r="4" spans="1:23" ht="14.4" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F4" s="2"/>
-      <c r="G4" s="44" t="s">
+      <c r="G4" s="41" t="s">
+        <v>64</v>
+      </c>
+      <c r="H4" s="42"/>
+      <c r="I4" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="H4" s="45"/>
-      <c r="I4" s="44" t="s">
+      <c r="J4" s="42"/>
+      <c r="K4" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="L4" s="42"/>
+      <c r="M4" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="J4" s="45"/>
-      <c r="K4" s="44" t="s">
-        <v>22</v>
-      </c>
-      <c r="L4" s="45"/>
-      <c r="M4" s="44" t="s">
-        <v>23</v>
-      </c>
-      <c r="N4" s="45"/>
+      <c r="N4" s="42"/>
     </row>
     <row r="5" spans="1:23" ht="28.2" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A5" s="28" t="s">
@@ -1245,28 +1245,28 @@
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="H5" s="14" t="s">
-        <v>28</v>
-      </c>
       <c r="I5" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="J5" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="J5" s="14" t="s">
-        <v>28</v>
-      </c>
       <c r="K5" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="L5" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="L5" s="14" t="s">
-        <v>28</v>
-      </c>
       <c r="M5" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="N5" s="14" t="s">
         <v>27</v>
-      </c>
-      <c r="N5" s="14" t="s">
-        <v>28</v>
       </c>
       <c r="S5" s="1"/>
       <c r="T5" s="1"/>
@@ -1276,22 +1276,22 @@
     </row>
     <row r="6" spans="1:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G6" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H6" s="17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I6" s="16"/>
       <c r="J6" s="17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K6" s="16"/>
       <c r="L6" s="17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M6" s="16"/>
       <c r="N6" s="17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.3">
@@ -1308,22 +1308,22 @@
         <v>10</v>
       </c>
       <c r="G7" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H7" s="17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I7" s="16"/>
       <c r="J7" s="17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K7" s="16"/>
       <c r="L7" s="17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M7" s="16"/>
       <c r="N7" s="17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:23" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1337,25 +1337,25 @@
         <v>1</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G8" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H8" s="17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I8" s="16"/>
       <c r="J8" s="17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K8" s="16"/>
       <c r="L8" s="17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M8" s="16"/>
       <c r="N8" s="17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:23" ht="21" customHeight="1" x14ac:dyDescent="0.3">
@@ -1363,13 +1363,13 @@
         <v>2</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D9" s="4">
         <v>2</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G9" s="5"/>
       <c r="H9" s="3"/>
@@ -1385,13 +1385,13 @@
         <v>3</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D10" s="4">
         <v>3</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G10" s="5"/>
       <c r="H10" s="3"/>
@@ -1409,7 +1409,7 @@
         <v>4</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="5"/>
@@ -1428,7 +1428,7 @@
         <v>5</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F12" s="1"/>
     </row>
@@ -1439,25 +1439,25 @@
         <v>6</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F13" s="1"/>
-      <c r="G13" s="42" t="s">
-        <v>35</v>
-      </c>
-      <c r="H13" s="42"/>
-      <c r="I13" s="42" t="s">
-        <v>35</v>
-      </c>
-      <c r="J13" s="42"/>
-      <c r="K13" s="42" t="s">
-        <v>35</v>
-      </c>
-      <c r="L13" s="42"/>
-      <c r="M13" s="42" t="s">
-        <v>35</v>
-      </c>
-      <c r="N13" s="42"/>
+      <c r="G13" s="45" t="s">
+        <v>34</v>
+      </c>
+      <c r="H13" s="45"/>
+      <c r="I13" s="45" t="s">
+        <v>34</v>
+      </c>
+      <c r="J13" s="45"/>
+      <c r="K13" s="45" t="s">
+        <v>34</v>
+      </c>
+      <c r="L13" s="45"/>
+      <c r="M13" s="45" t="s">
+        <v>34</v>
+      </c>
+      <c r="N13" s="45"/>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A14" s="29"/>
@@ -1466,19 +1466,19 @@
         <v>7</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F14" s="1"/>
-      <c r="G14" s="40" t="s">
-        <v>63</v>
-      </c>
-      <c r="H14" s="40"/>
-      <c r="I14" s="40"/>
-      <c r="J14" s="40"/>
-      <c r="K14" s="40"/>
-      <c r="L14" s="40"/>
-      <c r="M14" s="40"/>
-      <c r="N14" s="40"/>
+      <c r="G14" s="43" t="s">
+        <v>62</v>
+      </c>
+      <c r="H14" s="43"/>
+      <c r="I14" s="43"/>
+      <c r="J14" s="43"/>
+      <c r="K14" s="43"/>
+      <c r="L14" s="43"/>
+      <c r="M14" s="43"/>
+      <c r="N14" s="43"/>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A15" s="29"/>
@@ -1487,19 +1487,19 @@
         <v>8</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F15" s="1"/>
-      <c r="G15" s="40" t="s">
-        <v>64</v>
-      </c>
-      <c r="H15" s="40"/>
-      <c r="I15" s="40"/>
-      <c r="J15" s="40"/>
-      <c r="K15" s="40"/>
-      <c r="L15" s="40"/>
-      <c r="M15" s="40"/>
-      <c r="N15" s="40"/>
+      <c r="G15" s="43" t="s">
+        <v>63</v>
+      </c>
+      <c r="H15" s="43"/>
+      <c r="I15" s="43"/>
+      <c r="J15" s="43"/>
+      <c r="K15" s="43"/>
+      <c r="L15" s="43"/>
+      <c r="M15" s="43"/>
+      <c r="N15" s="43"/>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A16" s="29"/>
@@ -1508,17 +1508,17 @@
         <v>9</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F16" s="1"/>
-      <c r="G16" s="40"/>
-      <c r="H16" s="40"/>
-      <c r="I16" s="40"/>
-      <c r="J16" s="40"/>
-      <c r="K16" s="40"/>
-      <c r="L16" s="40"/>
-      <c r="M16" s="40"/>
-      <c r="N16" s="40"/>
+      <c r="G16" s="43"/>
+      <c r="H16" s="43"/>
+      <c r="I16" s="43"/>
+      <c r="J16" s="43"/>
+      <c r="K16" s="43"/>
+      <c r="L16" s="43"/>
+      <c r="M16" s="43"/>
+      <c r="N16" s="43"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" s="29"/>
@@ -1527,17 +1527,17 @@
         <v>10</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F17" s="1"/>
-      <c r="G17" s="40"/>
-      <c r="H17" s="40"/>
-      <c r="I17" s="40"/>
-      <c r="J17" s="40"/>
-      <c r="K17" s="40"/>
-      <c r="L17" s="40"/>
-      <c r="M17" s="40"/>
-      <c r="N17" s="40"/>
+      <c r="G17" s="43"/>
+      <c r="H17" s="43"/>
+      <c r="I17" s="43"/>
+      <c r="J17" s="43"/>
+      <c r="K17" s="43"/>
+      <c r="L17" s="43"/>
+      <c r="M17" s="43"/>
+      <c r="N17" s="43"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" s="29"/>
@@ -1546,17 +1546,17 @@
         <v>11</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F18" s="1"/>
-      <c r="G18" s="40"/>
-      <c r="H18" s="40"/>
-      <c r="I18" s="40"/>
-      <c r="J18" s="40"/>
-      <c r="K18" s="40"/>
-      <c r="L18" s="40"/>
-      <c r="M18" s="40"/>
-      <c r="N18" s="40"/>
+      <c r="G18" s="43"/>
+      <c r="H18" s="43"/>
+      <c r="I18" s="43"/>
+      <c r="J18" s="43"/>
+      <c r="K18" s="43"/>
+      <c r="L18" s="43"/>
+      <c r="M18" s="43"/>
+      <c r="N18" s="43"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" s="29"/>
@@ -1565,7 +1565,7 @@
         <v>12</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F19" s="1"/>
     </row>
@@ -1576,7 +1576,7 @@
         <v>13</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F20" s="1"/>
     </row>
@@ -1587,7 +1587,7 @@
         <v>14</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F21" s="1"/>
     </row>
@@ -1598,7 +1598,7 @@
         <v>15</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F22" s="1"/>
     </row>
@@ -1608,30 +1608,30 @@
       <c r="D23" s="1"/>
     </row>
     <row r="25" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="32" t="s">
+      <c r="A25" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="B25" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="C25" s="35"/>
-      <c r="D25" s="35"/>
-      <c r="E25" s="36"/>
+      <c r="B25" s="48" t="s">
+        <v>51</v>
+      </c>
+      <c r="C25" s="49"/>
+      <c r="D25" s="49"/>
+      <c r="E25" s="50"/>
       <c r="F25" s="1"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A26" s="33"/>
-      <c r="B26" s="37"/>
-      <c r="C26" s="38"/>
-      <c r="D26" s="38"/>
-      <c r="E26" s="39"/>
+      <c r="A26" s="47"/>
+      <c r="B26" s="51"/>
+      <c r="C26" s="52"/>
+      <c r="D26" s="52"/>
+      <c r="E26" s="53"/>
     </row>
     <row r="27" spans="1:14" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A27" s="22" t="s">
         <v>14</v>
       </c>
       <c r="B27" s="23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C27" s="24"/>
       <c r="D27" s="22" t="s">
@@ -1643,78 +1643,78 @@
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A29" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="B29" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="B29" s="50" t="s">
+      <c r="C29" s="35"/>
+      <c r="D29" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="C29" s="51"/>
-      <c r="D29" s="48" t="s">
-        <v>26</v>
-      </c>
-      <c r="E29" s="49"/>
+      <c r="E29" s="33"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A30" s="18">
         <v>1</v>
       </c>
-      <c r="B30" s="30" t="s">
+      <c r="B30" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30" s="37"/>
+      <c r="D30" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="C30" s="31"/>
-      <c r="D30" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="E30" s="31"/>
+      <c r="E30" s="37"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A31" s="18">
         <v>2</v>
       </c>
-      <c r="B31" s="30" t="s">
-        <v>58</v>
-      </c>
-      <c r="C31" s="31"/>
-      <c r="D31" s="30" t="s">
-        <v>56</v>
-      </c>
-      <c r="E31" s="31"/>
+      <c r="B31" s="36" t="s">
+        <v>57</v>
+      </c>
+      <c r="C31" s="37"/>
+      <c r="D31" s="36" t="s">
+        <v>55</v>
+      </c>
+      <c r="E31" s="37"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A32" s="18">
         <v>3</v>
       </c>
-      <c r="B32" s="30" t="s">
-        <v>33</v>
-      </c>
-      <c r="C32" s="31"/>
-      <c r="D32" s="30" t="s">
-        <v>53</v>
-      </c>
-      <c r="E32" s="31"/>
+      <c r="B32" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="C32" s="37"/>
+      <c r="D32" s="36" t="s">
+        <v>52</v>
+      </c>
+      <c r="E32" s="37"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="18">
         <v>4</v>
       </c>
-      <c r="B33" s="30"/>
-      <c r="C33" s="31"/>
-      <c r="D33" s="30"/>
-      <c r="E33" s="31"/>
+      <c r="B33" s="36"/>
+      <c r="C33" s="37"/>
+      <c r="D33" s="36"/>
+      <c r="E33" s="37"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="18"/>
-      <c r="B34" s="30"/>
-      <c r="C34" s="31"/>
-      <c r="D34" s="30"/>
-      <c r="E34" s="31"/>
+      <c r="B34" s="36"/>
+      <c r="C34" s="37"/>
+      <c r="D34" s="36"/>
+      <c r="E34" s="37"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="18"/>
-      <c r="B35" s="30"/>
-      <c r="C35" s="31"/>
-      <c r="D35" s="30"/>
-      <c r="E35" s="31"/>
+      <c r="B35" s="36"/>
+      <c r="C35" s="37"/>
+      <c r="D35" s="36"/>
+      <c r="E35" s="37"/>
     </row>
     <row r="38" spans="1:5" ht="26.1" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="39" spans="1:5" ht="26.1" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1726,6 +1726,43 @@
     <row r="68" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="51">
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B25:E26"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="G2:N2"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G17:H17"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="D29:E29"/>
     <mergeCell ref="B29:C29"/>
@@ -1740,43 +1777,6 @@
     <mergeCell ref="D30:E30"/>
     <mergeCell ref="D31:E31"/>
     <mergeCell ref="D2:E2"/>
-    <mergeCell ref="G2:N2"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="M17:N17"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="M18:N18"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="B25:E26"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="K18:L18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -1784,12 +1784,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100F6A5A8B846BB61408BAC96912A48B9A8" ma:contentTypeVersion="2" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="e2efab9668351af1ee38b12b0ffd9ede">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="2835a775-56e5-473e-93b2-b8b6176d193a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2647aa4c78d06f7c1205c6a6e1c2c79d" ns2:_="">
     <xsd:import namespace="2835a775-56e5-473e-93b2-b8b6176d193a"/>
@@ -1921,6 +1915,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -1931,15 +1931,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{86567253-966F-4F1D-B2AE-0608F592F601}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6A3F87F2-577F-4B65-8FEE-A540B5E93770}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1957,6 +1948,15 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{86567253-966F-4F1D-B2AE-0608F592F601}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BCD417DE-AE4D-4310-B006-24C26EFB9650}">
   <ds:schemaRefs>

--- a/test_cases/PE-16/TC-1601.xlsx
+++ b/test_cases/PE-16/TC-1601.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Descargas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A2D2246-7D1B-4A13-8CE5-10689601B340}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89698958-286E-46FB-98EC-0CC4F72D7507}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{DCE1F527-8622-40D5-806A-6A7E2BCE07A3}"/>
   </bookViews>
   <sheets>
     <sheet name="TC - Template" sheetId="1" r:id="rId1"/>
+    <sheet name="DF-01" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="87">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -222,20 +223,86 @@
     <t>Indurain Moneo Ignacio</t>
   </si>
   <si>
-    <t>Falta un campo de informacion adicional</t>
-  </si>
-  <si>
-    <t>Falta un campo de fecha nacimiento</t>
-  </si>
-  <si>
     <t>Tester: Indurain Moneo Ignacio</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Description / Overview</t>
+  </si>
+  <si>
+    <t>Reproduction Steps</t>
+  </si>
+  <si>
+    <t>Expected Behavior</t>
+  </si>
+  <si>
+    <t>Actual Behavior</t>
+  </si>
+  <si>
+    <t>Incidence / Severity / Probability of reproduction</t>
+  </si>
+  <si>
+    <t>100% reproduction rate</t>
+  </si>
+  <si>
+    <t>Story and Acceptance Criteria affected</t>
+  </si>
+  <si>
+    <t>Browsers tested</t>
+  </si>
+  <si>
+    <t>Google Chrome, v107</t>
+  </si>
+  <si>
+    <t>Environment</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Affected User Story: US-2</t>
+  </si>
+  <si>
+    <t>QA environment, http://127.0.0.1:5000</t>
+  </si>
+  <si>
+    <t>1- Open the application page: http://127.0.0.1:5000</t>
+  </si>
+  <si>
+    <t>2- Click Sign In</t>
+  </si>
+  <si>
+    <t>3- Click Register here</t>
+  </si>
+  <si>
+    <t>TC-1601 covers this scenario</t>
+  </si>
+  <si>
+    <t>DF-01</t>
+  </si>
+  <si>
+    <t>Register User: The additional information and email fields do not exist</t>
+  </si>
+  <si>
+    <t>The Page shows the register form, but no Additional information/email field</t>
+  </si>
+  <si>
+    <t>Two minor fields in the register form do not exist</t>
+  </si>
+  <si>
+    <t>A page showing the register form is displayed and there is no additional information or email field</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Minor severity - There is no additional information/email field </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -338,8 +405,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -361,8 +443,14 @@
         <fgColor rgb="FFA5A5A5"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="22">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -635,6 +723,65 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -643,7 +790,7 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -730,6 +877,54 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="7" xfId="4" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="7" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="20" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="21" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -748,59 +943,46 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="7" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="20" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="21" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="7" xfId="4" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1122,8 +1304,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F3CCAC7-6C0E-44CD-ADA1-CF7A0722318C}">
   <dimension ref="A1:W68"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1154,10 +1336,10 @@
       <c r="C1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="D1" s="46" t="s">
         <v>60</v>
       </c>
-      <c r="E1" s="31"/>
+      <c r="E1" s="47"/>
     </row>
     <row r="2" spans="1:23" ht="21.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
@@ -1169,20 +1351,20 @@
       <c r="C2" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="38" t="s">
+      <c r="D2" s="52" t="s">
         <v>61</v>
       </c>
-      <c r="E2" s="39"/>
-      <c r="G2" s="40" t="s">
+      <c r="E2" s="53"/>
+      <c r="G2" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40"/>
-      <c r="K2" s="40"/>
-      <c r="L2" s="40"/>
-      <c r="M2" s="40"/>
-      <c r="N2" s="40"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="43"/>
+      <c r="L2" s="43"/>
+      <c r="M2" s="43"/>
+      <c r="N2" s="43"/>
     </row>
     <row r="3" spans="1:23" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="10" t="s">
@@ -1197,41 +1379,41 @@
         <v>53</v>
       </c>
       <c r="F3" s="1"/>
-      <c r="G3" s="44" t="s">
+      <c r="G3" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="44"/>
-      <c r="I3" s="44" t="s">
+      <c r="H3" s="41"/>
+      <c r="I3" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="J3" s="44"/>
-      <c r="K3" s="44" t="s">
+      <c r="J3" s="41"/>
+      <c r="K3" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="L3" s="44"/>
-      <c r="M3" s="44" t="s">
+      <c r="L3" s="41"/>
+      <c r="M3" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="N3" s="44"/>
+      <c r="N3" s="41"/>
     </row>
     <row r="4" spans="1:23" ht="14.4" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F4" s="2"/>
-      <c r="G4" s="41" t="s">
-        <v>64</v>
-      </c>
-      <c r="H4" s="42"/>
-      <c r="I4" s="41" t="s">
+      <c r="G4" s="44" t="s">
+        <v>62</v>
+      </c>
+      <c r="H4" s="45"/>
+      <c r="I4" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="J4" s="42"/>
-      <c r="K4" s="41" t="s">
+      <c r="J4" s="45"/>
+      <c r="K4" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="L4" s="42"/>
-      <c r="M4" s="41" t="s">
+      <c r="L4" s="45"/>
+      <c r="M4" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="N4" s="42"/>
+      <c r="N4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="28.2" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A5" s="28" t="s">
@@ -1442,22 +1624,22 @@
         <v>42</v>
       </c>
       <c r="F13" s="1"/>
-      <c r="G13" s="45" t="s">
+      <c r="G13" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="H13" s="45"/>
-      <c r="I13" s="45" t="s">
+      <c r="H13" s="42"/>
+      <c r="I13" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="J13" s="45"/>
-      <c r="K13" s="45" t="s">
+      <c r="J13" s="42"/>
+      <c r="K13" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="L13" s="45"/>
-      <c r="M13" s="45" t="s">
+      <c r="L13" s="42"/>
+      <c r="M13" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="N13" s="45"/>
+      <c r="N13" s="42"/>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A14" s="29"/>
@@ -1469,16 +1651,16 @@
         <v>43</v>
       </c>
       <c r="F14" s="1"/>
-      <c r="G14" s="43" t="s">
-        <v>62</v>
-      </c>
-      <c r="H14" s="43"/>
-      <c r="I14" s="43"/>
-      <c r="J14" s="43"/>
-      <c r="K14" s="43"/>
-      <c r="L14" s="43"/>
-      <c r="M14" s="43"/>
-      <c r="N14" s="43"/>
+      <c r="G14" s="40" t="s">
+        <v>81</v>
+      </c>
+      <c r="H14" s="40"/>
+      <c r="I14" s="40"/>
+      <c r="J14" s="40"/>
+      <c r="K14" s="40"/>
+      <c r="L14" s="40"/>
+      <c r="M14" s="40"/>
+      <c r="N14" s="40"/>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A15" s="29"/>
@@ -1490,16 +1672,14 @@
         <v>44</v>
       </c>
       <c r="F15" s="1"/>
-      <c r="G15" s="43" t="s">
-        <v>63</v>
-      </c>
-      <c r="H15" s="43"/>
-      <c r="I15" s="43"/>
-      <c r="J15" s="43"/>
-      <c r="K15" s="43"/>
-      <c r="L15" s="43"/>
-      <c r="M15" s="43"/>
-      <c r="N15" s="43"/>
+      <c r="G15" s="40"/>
+      <c r="H15" s="40"/>
+      <c r="I15" s="40"/>
+      <c r="J15" s="40"/>
+      <c r="K15" s="40"/>
+      <c r="L15" s="40"/>
+      <c r="M15" s="40"/>
+      <c r="N15" s="40"/>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A16" s="29"/>
@@ -1511,14 +1691,14 @@
         <v>45</v>
       </c>
       <c r="F16" s="1"/>
-      <c r="G16" s="43"/>
-      <c r="H16" s="43"/>
-      <c r="I16" s="43"/>
-      <c r="J16" s="43"/>
-      <c r="K16" s="43"/>
-      <c r="L16" s="43"/>
-      <c r="M16" s="43"/>
-      <c r="N16" s="43"/>
+      <c r="G16" s="40"/>
+      <c r="H16" s="40"/>
+      <c r="I16" s="40"/>
+      <c r="J16" s="40"/>
+      <c r="K16" s="40"/>
+      <c r="L16" s="40"/>
+      <c r="M16" s="40"/>
+      <c r="N16" s="40"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" s="29"/>
@@ -1530,14 +1710,14 @@
         <v>46</v>
       </c>
       <c r="F17" s="1"/>
-      <c r="G17" s="43"/>
-      <c r="H17" s="43"/>
-      <c r="I17" s="43"/>
-      <c r="J17" s="43"/>
-      <c r="K17" s="43"/>
-      <c r="L17" s="43"/>
-      <c r="M17" s="43"/>
-      <c r="N17" s="43"/>
+      <c r="G17" s="40"/>
+      <c r="H17" s="40"/>
+      <c r="I17" s="40"/>
+      <c r="J17" s="40"/>
+      <c r="K17" s="40"/>
+      <c r="L17" s="40"/>
+      <c r="M17" s="40"/>
+      <c r="N17" s="40"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" s="29"/>
@@ -1549,14 +1729,14 @@
         <v>47</v>
       </c>
       <c r="F18" s="1"/>
-      <c r="G18" s="43"/>
-      <c r="H18" s="43"/>
-      <c r="I18" s="43"/>
-      <c r="J18" s="43"/>
-      <c r="K18" s="43"/>
-      <c r="L18" s="43"/>
-      <c r="M18" s="43"/>
-      <c r="N18" s="43"/>
+      <c r="G18" s="40"/>
+      <c r="H18" s="40"/>
+      <c r="I18" s="40"/>
+      <c r="J18" s="40"/>
+      <c r="K18" s="40"/>
+      <c r="L18" s="40"/>
+      <c r="M18" s="40"/>
+      <c r="N18" s="40"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" s="29"/>
@@ -1608,23 +1788,23 @@
       <c r="D23" s="1"/>
     </row>
     <row r="25" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="46" t="s">
+      <c r="A25" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="B25" s="48" t="s">
+      <c r="B25" s="34" t="s">
         <v>51</v>
       </c>
-      <c r="C25" s="49"/>
-      <c r="D25" s="49"/>
-      <c r="E25" s="50"/>
+      <c r="C25" s="35"/>
+      <c r="D25" s="35"/>
+      <c r="E25" s="36"/>
       <c r="F25" s="1"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A26" s="47"/>
-      <c r="B26" s="51"/>
-      <c r="C26" s="52"/>
-      <c r="D26" s="52"/>
-      <c r="E26" s="53"/>
+      <c r="A26" s="33"/>
+      <c r="B26" s="37"/>
+      <c r="C26" s="38"/>
+      <c r="D26" s="38"/>
+      <c r="E26" s="39"/>
     </row>
     <row r="27" spans="1:14" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A27" s="22" t="s">
@@ -1645,76 +1825,76 @@
       <c r="A29" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="B29" s="34" t="s">
+      <c r="B29" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="C29" s="35"/>
-      <c r="D29" s="32" t="s">
+      <c r="C29" s="51"/>
+      <c r="D29" s="48" t="s">
         <v>25</v>
       </c>
-      <c r="E29" s="33"/>
+      <c r="E29" s="49"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A30" s="18">
         <v>1</v>
       </c>
-      <c r="B30" s="36" t="s">
+      <c r="B30" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="C30" s="37"/>
-      <c r="D30" s="36" t="s">
+      <c r="C30" s="31"/>
+      <c r="D30" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="E30" s="37"/>
+      <c r="E30" s="31"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A31" s="18">
         <v>2</v>
       </c>
-      <c r="B31" s="36" t="s">
+      <c r="B31" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="C31" s="37"/>
-      <c r="D31" s="36" t="s">
+      <c r="C31" s="31"/>
+      <c r="D31" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="E31" s="37"/>
+      <c r="E31" s="31"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A32" s="18">
         <v>3</v>
       </c>
-      <c r="B32" s="36" t="s">
+      <c r="B32" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="C32" s="37"/>
-      <c r="D32" s="36" t="s">
+      <c r="C32" s="31"/>
+      <c r="D32" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="E32" s="37"/>
+      <c r="E32" s="31"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="18">
         <v>4</v>
       </c>
-      <c r="B33" s="36"/>
-      <c r="C33" s="37"/>
-      <c r="D33" s="36"/>
-      <c r="E33" s="37"/>
+      <c r="B33" s="30"/>
+      <c r="C33" s="31"/>
+      <c r="D33" s="30"/>
+      <c r="E33" s="31"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="18"/>
-      <c r="B34" s="36"/>
-      <c r="C34" s="37"/>
-      <c r="D34" s="36"/>
-      <c r="E34" s="37"/>
+      <c r="B34" s="30"/>
+      <c r="C34" s="31"/>
+      <c r="D34" s="30"/>
+      <c r="E34" s="31"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="18"/>
-      <c r="B35" s="36"/>
-      <c r="C35" s="37"/>
-      <c r="D35" s="36"/>
-      <c r="E35" s="37"/>
+      <c r="B35" s="30"/>
+      <c r="C35" s="31"/>
+      <c r="D35" s="30"/>
+      <c r="E35" s="31"/>
     </row>
     <row r="38" spans="1:5" ht="26.1" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="39" spans="1:5" ht="26.1" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1726,29 +1906,20 @@
     <row r="68" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="51">
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="B25:E26"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="M18:N18"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="D2:E2"/>
     <mergeCell ref="G2:N2"/>
     <mergeCell ref="I4:J4"/>
     <mergeCell ref="K4:L4"/>
@@ -1763,27 +1934,202 @@
     <mergeCell ref="G15:H15"/>
     <mergeCell ref="G16:H16"/>
     <mergeCell ref="G17:H17"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B25:E26"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="G18:H18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5CC923C-478B-4E80-A10B-16C9D457E56E}">
+  <dimension ref="A1:B23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D18" sqref="D17:D18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="40.21875" customWidth="1"/>
+    <col min="2" max="2" width="79.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="54" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" s="55" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="56"/>
+      <c r="B2" s="56"/>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="54" t="s">
+        <v>64</v>
+      </c>
+      <c r="B3" s="70" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="56"/>
+      <c r="B4" s="56"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="57" t="s">
+        <v>65</v>
+      </c>
+      <c r="B5" s="58" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="59"/>
+      <c r="B6" s="60" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="61"/>
+      <c r="B7" s="62" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="56"/>
+      <c r="B8" s="56"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="63" t="s">
+        <v>66</v>
+      </c>
+      <c r="B9" s="64" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="56"/>
+      <c r="B10" s="56"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="63" t="s">
+        <v>67</v>
+      </c>
+      <c r="B11" s="64" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="56"/>
+      <c r="B12" s="56"/>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="57" t="s">
+        <v>68</v>
+      </c>
+      <c r="B13" s="58" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="61"/>
+      <c r="B14" s="62" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="56"/>
+      <c r="B15" s="56"/>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="63" t="s">
+        <v>70</v>
+      </c>
+      <c r="B16" s="65" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="56"/>
+      <c r="B17" s="56"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="63" t="s">
+        <v>71</v>
+      </c>
+      <c r="B18" s="64" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="56"/>
+      <c r="B19" s="56"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="63" t="s">
+        <v>73</v>
+      </c>
+      <c r="B20" s="64" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="56"/>
+      <c r="B21" s="56"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="68" t="s">
+        <v>74</v>
+      </c>
+      <c r="B22" s="66" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="69"/>
+      <c r="B23" s="67"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A22:A23"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100F6A5A8B846BB61408BAC96912A48B9A8" ma:contentTypeVersion="2" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="e2efab9668351af1ee38b12b0ffd9ede">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="2835a775-56e5-473e-93b2-b8b6176d193a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2647aa4c78d06f7c1205c6a6e1c2c79d" ns2:_="">
     <xsd:import namespace="2835a775-56e5-473e-93b2-b8b6176d193a"/>
@@ -1915,12 +2261,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -1931,6 +2271,15 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{86567253-966F-4F1D-B2AE-0608F592F601}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6A3F87F2-577F-4B65-8FEE-A540B5E93770}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1948,15 +2297,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{86567253-966F-4F1D-B2AE-0608F592F601}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BCD417DE-AE4D-4310-B006-24C26EFB9650}">
   <ds:schemaRefs>

--- a/test_cases/PE-16/TC-1601.xlsx
+++ b/test_cases/PE-16/TC-1601.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Descargas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89698958-286E-46FB-98EC-0CC4F72D7507}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADEB5C0D-CECE-48DE-8DC0-95118D8B75D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{DCE1F527-8622-40D5-806A-6A7E2BCE07A3}"/>
   </bookViews>
@@ -127,9 +127,6 @@
     <t>Site should open</t>
   </si>
   <si>
-    <t>As Expected</t>
-  </si>
-  <si>
     <t>Not executed</t>
   </si>
   <si>
@@ -296,6 +293,9 @@
   </si>
   <si>
     <t xml:space="preserve">Minor severity - There is no additional information/email field </t>
+  </si>
+  <si>
+    <t>Not as expected</t>
   </si>
 </sst>
 </file>
@@ -1305,7 +1305,7 @@
   <dimension ref="A1:W68"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="G13" sqref="G13:H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1331,13 +1331,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C1" s="21" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="46" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E1" s="47"/>
     </row>
@@ -1346,13 +1346,13 @@
         <v>2</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C2" s="20" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="52" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E2" s="53"/>
       <c r="G2" s="43" t="s">
@@ -1376,7 +1376,7 @@
         <v>5</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="41" t="s">
@@ -1399,7 +1399,7 @@
     <row r="4" spans="1:23" ht="14.4" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F4" s="2"/>
       <c r="G4" s="44" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H4" s="45"/>
       <c r="I4" s="44" t="s">
@@ -1458,22 +1458,22 @@
     </row>
     <row r="6" spans="1:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G6" s="16" t="s">
-        <v>30</v>
+        <v>86</v>
       </c>
       <c r="H6" s="17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I6" s="16"/>
       <c r="J6" s="17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K6" s="16"/>
       <c r="L6" s="17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M6" s="16"/>
       <c r="N6" s="17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.3">
@@ -1490,22 +1490,22 @@
         <v>10</v>
       </c>
       <c r="G7" s="16" t="s">
-        <v>30</v>
+        <v>86</v>
       </c>
       <c r="H7" s="17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I7" s="16"/>
       <c r="J7" s="17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K7" s="16"/>
       <c r="L7" s="17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M7" s="16"/>
       <c r="N7" s="17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:23" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1519,25 +1519,25 @@
         <v>1</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G8" s="16" t="s">
-        <v>30</v>
+        <v>86</v>
       </c>
       <c r="H8" s="17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I8" s="16"/>
       <c r="J8" s="17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K8" s="16"/>
       <c r="L8" s="17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M8" s="16"/>
       <c r="N8" s="17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:23" ht="21" customHeight="1" x14ac:dyDescent="0.3">
@@ -1545,13 +1545,13 @@
         <v>2</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D9" s="4">
         <v>2</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G9" s="5"/>
       <c r="H9" s="3"/>
@@ -1567,13 +1567,13 @@
         <v>3</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D10" s="4">
         <v>3</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G10" s="5"/>
       <c r="H10" s="3"/>
@@ -1591,7 +1591,7 @@
         <v>4</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="5"/>
@@ -1610,7 +1610,7 @@
         <v>5</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F12" s="1"/>
     </row>
@@ -1621,23 +1621,23 @@
         <v>6</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="42" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H13" s="42"/>
       <c r="I13" s="42" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J13" s="42"/>
       <c r="K13" s="42" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L13" s="42"/>
       <c r="M13" s="42" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N13" s="42"/>
     </row>
@@ -1648,11 +1648,11 @@
         <v>7</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="40" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H14" s="40"/>
       <c r="I14" s="40"/>
@@ -1669,7 +1669,7 @@
         <v>8</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="40"/>
@@ -1688,7 +1688,7 @@
         <v>9</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="40"/>
@@ -1707,7 +1707,7 @@
         <v>10</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="40"/>
@@ -1726,7 +1726,7 @@
         <v>11</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F18" s="1"/>
       <c r="G18" s="40"/>
@@ -1745,7 +1745,7 @@
         <v>12</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F19" s="1"/>
     </row>
@@ -1756,7 +1756,7 @@
         <v>13</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F20" s="1"/>
     </row>
@@ -1767,7 +1767,7 @@
         <v>14</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F21" s="1"/>
     </row>
@@ -1778,7 +1778,7 @@
         <v>15</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F22" s="1"/>
     </row>
@@ -1792,7 +1792,7 @@
         <v>12</v>
       </c>
       <c r="B25" s="34" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C25" s="35"/>
       <c r="D25" s="35"/>
@@ -1811,7 +1811,7 @@
         <v>14</v>
       </c>
       <c r="B27" s="23" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C27" s="24"/>
       <c r="D27" s="22" t="s">
@@ -1852,11 +1852,11 @@
         <v>2</v>
       </c>
       <c r="B31" s="30" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C31" s="31"/>
       <c r="D31" s="30" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E31" s="31"/>
     </row>
@@ -1865,11 +1865,11 @@
         <v>3</v>
       </c>
       <c r="B32" s="30" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C32" s="31"/>
       <c r="D32" s="30" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E32" s="31"/>
     </row>
@@ -1979,10 +1979,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="54" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B1" s="55" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -1991,10 +1991,10 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="54" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B3" s="70" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -2003,22 +2003,22 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="57" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B5" s="58" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="59"/>
       <c r="B6" s="60" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="61"/>
       <c r="B7" s="62" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -2027,10 +2027,10 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="63" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B9" s="64" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -2039,10 +2039,10 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="63" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B11" s="64" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -2051,16 +2051,16 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="57" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B13" s="58" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="61"/>
       <c r="B14" s="62" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
@@ -2069,10 +2069,10 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="63" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B16" s="65" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -2081,10 +2081,10 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="63" t="s">
+        <v>70</v>
+      </c>
+      <c r="B18" s="64" t="s">
         <v>71</v>
-      </c>
-      <c r="B18" s="64" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
@@ -2093,10 +2093,10 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="63" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B20" s="64" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
@@ -2105,10 +2105,10 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="68" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B22" s="66" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">

--- a/test_cases/PE-16/TC-1601.xlsx
+++ b/test_cases/PE-16/TC-1601.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Descargas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADEB5C0D-CECE-48DE-8DC0-95118D8B75D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A83137C5-18A1-49E6-85EC-E614C3FEBB0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{DCE1F527-8622-40D5-806A-6A7E2BCE07A3}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{DCE1F527-8622-40D5-806A-6A7E2BCE07A3}"/>
   </bookViews>
   <sheets>
     <sheet name="TC - Template" sheetId="1" r:id="rId1"/>
@@ -877,78 +877,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="7" xfId="4" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="7" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="20" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="21" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -975,14 +903,86 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="7" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="20" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="21" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="7" xfId="4" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1003,6 +1003,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>60960</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>45719</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2314637</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Imagen 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6993A0C1-847F-4F2B-8F34-95094792B7E9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2819400" y="2057399"/>
+          <a:ext cx="2253677" cy="2004061"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1304,7 +1353,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F3CCAC7-6C0E-44CD-ADA1-CF7A0722318C}">
   <dimension ref="A1:W68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="G13" sqref="G13:H13"/>
     </sheetView>
   </sheetViews>
@@ -1336,10 +1385,10 @@
       <c r="C1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="46" t="s">
+      <c r="D1" s="45" t="s">
         <v>59</v>
       </c>
-      <c r="E1" s="47"/>
+      <c r="E1" s="46"/>
     </row>
     <row r="2" spans="1:23" ht="21.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
@@ -1351,20 +1400,20 @@
       <c r="C2" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="52" t="s">
+      <c r="D2" s="53" t="s">
         <v>60</v>
       </c>
-      <c r="E2" s="53"/>
-      <c r="G2" s="43" t="s">
+      <c r="E2" s="54"/>
+      <c r="G2" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="43"/>
-      <c r="I2" s="43"/>
-      <c r="J2" s="43"/>
-      <c r="K2" s="43"/>
-      <c r="L2" s="43"/>
-      <c r="M2" s="43"/>
-      <c r="N2" s="43"/>
+      <c r="H2" s="55"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="55"/>
+      <c r="L2" s="55"/>
+      <c r="M2" s="55"/>
+      <c r="N2" s="55"/>
     </row>
     <row r="3" spans="1:23" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="10" t="s">
@@ -1379,41 +1428,41 @@
         <v>52</v>
       </c>
       <c r="F3" s="1"/>
-      <c r="G3" s="41" t="s">
+      <c r="G3" s="59" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="41"/>
-      <c r="I3" s="41" t="s">
+      <c r="H3" s="59"/>
+      <c r="I3" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="J3" s="41"/>
-      <c r="K3" s="41" t="s">
+      <c r="J3" s="59"/>
+      <c r="K3" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="L3" s="41"/>
-      <c r="M3" s="41" t="s">
+      <c r="L3" s="59"/>
+      <c r="M3" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="N3" s="41"/>
+      <c r="N3" s="59"/>
     </row>
     <row r="4" spans="1:23" ht="14.4" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F4" s="2"/>
-      <c r="G4" s="44" t="s">
+      <c r="G4" s="56" t="s">
         <v>61</v>
       </c>
-      <c r="H4" s="45"/>
-      <c r="I4" s="44" t="s">
+      <c r="H4" s="57"/>
+      <c r="I4" s="56" t="s">
         <v>21</v>
       </c>
-      <c r="J4" s="45"/>
-      <c r="K4" s="44" t="s">
+      <c r="J4" s="57"/>
+      <c r="K4" s="56" t="s">
         <v>21</v>
       </c>
-      <c r="L4" s="45"/>
-      <c r="M4" s="44" t="s">
+      <c r="L4" s="57"/>
+      <c r="M4" s="56" t="s">
         <v>22</v>
       </c>
-      <c r="N4" s="45"/>
+      <c r="N4" s="57"/>
     </row>
     <row r="5" spans="1:23" ht="28.2" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A5" s="28" t="s">
@@ -1624,22 +1673,22 @@
         <v>41</v>
       </c>
       <c r="F13" s="1"/>
-      <c r="G13" s="42" t="s">
+      <c r="G13" s="60" t="s">
         <v>33</v>
       </c>
-      <c r="H13" s="42"/>
-      <c r="I13" s="42" t="s">
+      <c r="H13" s="60"/>
+      <c r="I13" s="60" t="s">
         <v>33</v>
       </c>
-      <c r="J13" s="42"/>
-      <c r="K13" s="42" t="s">
+      <c r="J13" s="60"/>
+      <c r="K13" s="60" t="s">
         <v>33</v>
       </c>
-      <c r="L13" s="42"/>
-      <c r="M13" s="42" t="s">
+      <c r="L13" s="60"/>
+      <c r="M13" s="60" t="s">
         <v>33</v>
       </c>
-      <c r="N13" s="42"/>
+      <c r="N13" s="60"/>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A14" s="29"/>
@@ -1651,16 +1700,16 @@
         <v>42</v>
       </c>
       <c r="F14" s="1"/>
-      <c r="G14" s="40" t="s">
+      <c r="G14" s="58" t="s">
         <v>80</v>
       </c>
-      <c r="H14" s="40"/>
-      <c r="I14" s="40"/>
-      <c r="J14" s="40"/>
-      <c r="K14" s="40"/>
-      <c r="L14" s="40"/>
-      <c r="M14" s="40"/>
-      <c r="N14" s="40"/>
+      <c r="H14" s="58"/>
+      <c r="I14" s="58"/>
+      <c r="J14" s="58"/>
+      <c r="K14" s="58"/>
+      <c r="L14" s="58"/>
+      <c r="M14" s="58"/>
+      <c r="N14" s="58"/>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A15" s="29"/>
@@ -1672,14 +1721,14 @@
         <v>43</v>
       </c>
       <c r="F15" s="1"/>
-      <c r="G15" s="40"/>
-      <c r="H15" s="40"/>
-      <c r="I15" s="40"/>
-      <c r="J15" s="40"/>
-      <c r="K15" s="40"/>
-      <c r="L15" s="40"/>
-      <c r="M15" s="40"/>
-      <c r="N15" s="40"/>
+      <c r="G15" s="58"/>
+      <c r="H15" s="58"/>
+      <c r="I15" s="58"/>
+      <c r="J15" s="58"/>
+      <c r="K15" s="58"/>
+      <c r="L15" s="58"/>
+      <c r="M15" s="58"/>
+      <c r="N15" s="58"/>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A16" s="29"/>
@@ -1691,14 +1740,14 @@
         <v>44</v>
       </c>
       <c r="F16" s="1"/>
-      <c r="G16" s="40"/>
-      <c r="H16" s="40"/>
-      <c r="I16" s="40"/>
-      <c r="J16" s="40"/>
-      <c r="K16" s="40"/>
-      <c r="L16" s="40"/>
-      <c r="M16" s="40"/>
-      <c r="N16" s="40"/>
+      <c r="G16" s="58"/>
+      <c r="H16" s="58"/>
+      <c r="I16" s="58"/>
+      <c r="J16" s="58"/>
+      <c r="K16" s="58"/>
+      <c r="L16" s="58"/>
+      <c r="M16" s="58"/>
+      <c r="N16" s="58"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" s="29"/>
@@ -1710,14 +1759,14 @@
         <v>45</v>
       </c>
       <c r="F17" s="1"/>
-      <c r="G17" s="40"/>
-      <c r="H17" s="40"/>
-      <c r="I17" s="40"/>
-      <c r="J17" s="40"/>
-      <c r="K17" s="40"/>
-      <c r="L17" s="40"/>
-      <c r="M17" s="40"/>
-      <c r="N17" s="40"/>
+      <c r="G17" s="58"/>
+      <c r="H17" s="58"/>
+      <c r="I17" s="58"/>
+      <c r="J17" s="58"/>
+      <c r="K17" s="58"/>
+      <c r="L17" s="58"/>
+      <c r="M17" s="58"/>
+      <c r="N17" s="58"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" s="29"/>
@@ -1729,14 +1778,14 @@
         <v>46</v>
       </c>
       <c r="F18" s="1"/>
-      <c r="G18" s="40"/>
-      <c r="H18" s="40"/>
-      <c r="I18" s="40"/>
-      <c r="J18" s="40"/>
-      <c r="K18" s="40"/>
-      <c r="L18" s="40"/>
-      <c r="M18" s="40"/>
-      <c r="N18" s="40"/>
+      <c r="G18" s="58"/>
+      <c r="H18" s="58"/>
+      <c r="I18" s="58"/>
+      <c r="J18" s="58"/>
+      <c r="K18" s="58"/>
+      <c r="L18" s="58"/>
+      <c r="M18" s="58"/>
+      <c r="N18" s="58"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" s="29"/>
@@ -1788,23 +1837,23 @@
       <c r="D23" s="1"/>
     </row>
     <row r="25" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="32" t="s">
+      <c r="A25" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="B25" s="34" t="s">
+      <c r="B25" s="63" t="s">
         <v>50</v>
       </c>
-      <c r="C25" s="35"/>
-      <c r="D25" s="35"/>
-      <c r="E25" s="36"/>
+      <c r="C25" s="64"/>
+      <c r="D25" s="64"/>
+      <c r="E25" s="65"/>
       <c r="F25" s="1"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A26" s="33"/>
-      <c r="B26" s="37"/>
-      <c r="C26" s="38"/>
-      <c r="D26" s="38"/>
-      <c r="E26" s="39"/>
+      <c r="A26" s="62"/>
+      <c r="B26" s="66"/>
+      <c r="C26" s="67"/>
+      <c r="D26" s="67"/>
+      <c r="E26" s="68"/>
     </row>
     <row r="27" spans="1:14" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A27" s="22" t="s">
@@ -1825,76 +1874,76 @@
       <c r="A29" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="B29" s="50" t="s">
+      <c r="B29" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="C29" s="51"/>
-      <c r="D29" s="48" t="s">
+      <c r="C29" s="50"/>
+      <c r="D29" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="E29" s="49"/>
+      <c r="E29" s="48"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A30" s="18">
         <v>1</v>
       </c>
-      <c r="B30" s="30" t="s">
+      <c r="B30" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="C30" s="31"/>
-      <c r="D30" s="30" t="s">
+      <c r="C30" s="52"/>
+      <c r="D30" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="E30" s="31"/>
+      <c r="E30" s="52"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A31" s="18">
         <v>2</v>
       </c>
-      <c r="B31" s="30" t="s">
+      <c r="B31" s="51" t="s">
         <v>56</v>
       </c>
-      <c r="C31" s="31"/>
-      <c r="D31" s="30" t="s">
+      <c r="C31" s="52"/>
+      <c r="D31" s="51" t="s">
         <v>54</v>
       </c>
-      <c r="E31" s="31"/>
+      <c r="E31" s="52"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A32" s="18">
         <v>3</v>
       </c>
-      <c r="B32" s="30" t="s">
+      <c r="B32" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="C32" s="31"/>
-      <c r="D32" s="30" t="s">
+      <c r="C32" s="52"/>
+      <c r="D32" s="51" t="s">
         <v>51</v>
       </c>
-      <c r="E32" s="31"/>
+      <c r="E32" s="52"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="18">
         <v>4</v>
       </c>
-      <c r="B33" s="30"/>
-      <c r="C33" s="31"/>
-      <c r="D33" s="30"/>
-      <c r="E33" s="31"/>
+      <c r="B33" s="51"/>
+      <c r="C33" s="52"/>
+      <c r="D33" s="51"/>
+      <c r="E33" s="52"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="18"/>
-      <c r="B34" s="30"/>
-      <c r="C34" s="31"/>
-      <c r="D34" s="30"/>
-      <c r="E34" s="31"/>
+      <c r="B34" s="51"/>
+      <c r="C34" s="52"/>
+      <c r="D34" s="51"/>
+      <c r="E34" s="52"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="18"/>
-      <c r="B35" s="30"/>
-      <c r="C35" s="31"/>
-      <c r="D35" s="30"/>
-      <c r="E35" s="31"/>
+      <c r="B35" s="51"/>
+      <c r="C35" s="52"/>
+      <c r="D35" s="51"/>
+      <c r="E35" s="52"/>
     </row>
     <row r="38" spans="1:5" ht="26.1" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="39" spans="1:5" ht="26.1" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1906,6 +1955,43 @@
     <row r="68" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="51">
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B25:E26"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="G2:N2"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="I15:J15"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="D29:E29"/>
     <mergeCell ref="B29:C29"/>
@@ -1920,43 +2006,6 @@
     <mergeCell ref="D30:E30"/>
     <mergeCell ref="D31:E31"/>
     <mergeCell ref="D2:E2"/>
-    <mergeCell ref="G2:N2"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="M17:N17"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="M18:N18"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="B25:E26"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="G18:H18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -1967,8 +2016,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5CC923C-478B-4E80-A10B-16C9D457E56E}">
   <dimension ref="A1:B23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D17:D18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1978,155 +2027,159 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="55" t="s">
+      <c r="B1" s="31" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="56"/>
-      <c r="B2" s="56"/>
+      <c r="A2" s="32"/>
+      <c r="B2" s="32"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="54" t="s">
+      <c r="A3" s="30" t="s">
         <v>63</v>
       </c>
-      <c r="B3" s="70" t="s">
+      <c r="B3" s="44" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="56"/>
-      <c r="B4" s="56"/>
+      <c r="A4" s="32"/>
+      <c r="B4" s="32"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="57" t="s">
+      <c r="A5" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="B5" s="58" t="s">
+      <c r="B5" s="34" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="59"/>
-      <c r="B6" s="60" t="s">
+      <c r="A6" s="35"/>
+      <c r="B6" s="36" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="61"/>
-      <c r="B7" s="62" t="s">
+      <c r="A7" s="37"/>
+      <c r="B7" s="38" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="56"/>
-      <c r="B8" s="56"/>
+      <c r="A8" s="32"/>
+      <c r="B8" s="32"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="63" t="s">
+      <c r="A9" s="39" t="s">
         <v>65</v>
       </c>
-      <c r="B9" s="64" t="s">
+      <c r="B9" s="40" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="56"/>
-      <c r="B10" s="56"/>
+      <c r="A10" s="32"/>
+      <c r="B10" s="32"/>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="63" t="s">
+      <c r="A11" s="39" t="s">
         <v>66</v>
       </c>
-      <c r="B11" s="64" t="s">
+      <c r="B11" s="40" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="56"/>
-      <c r="B12" s="56"/>
+    <row r="12" spans="1:2" ht="161.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="32"/>
+      <c r="B12" s="32"/>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="57" t="s">
+      <c r="A13" s="33" t="s">
         <v>67</v>
       </c>
-      <c r="B13" s="58" t="s">
+      <c r="B13" s="34" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="61"/>
-      <c r="B14" s="62" t="s">
+      <c r="A14" s="37"/>
+      <c r="B14" s="38" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" s="56"/>
-      <c r="B15" s="56"/>
+      <c r="A15" s="32"/>
+      <c r="B15" s="32"/>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" s="63" t="s">
+      <c r="A16" s="39" t="s">
         <v>69</v>
       </c>
-      <c r="B16" s="65" t="s">
+      <c r="B16" s="41" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="56"/>
-      <c r="B17" s="56"/>
+      <c r="A17" s="32"/>
+      <c r="B17" s="32"/>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="63" t="s">
+      <c r="A18" s="39" t="s">
         <v>70</v>
       </c>
-      <c r="B18" s="64" t="s">
+      <c r="B18" s="40" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="56"/>
-      <c r="B19" s="56"/>
+      <c r="A19" s="32"/>
+      <c r="B19" s="32"/>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="63" t="s">
+      <c r="A20" s="39" t="s">
         <v>72</v>
       </c>
-      <c r="B20" s="64" t="s">
+      <c r="B20" s="40" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" s="56"/>
-      <c r="B21" s="56"/>
+      <c r="A21" s="32"/>
+      <c r="B21" s="32"/>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" s="68" t="s">
+      <c r="A22" s="69" t="s">
         <v>73</v>
       </c>
-      <c r="B22" s="66" t="s">
+      <c r="B22" s="42" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" s="69"/>
-      <c r="B23" s="67"/>
+      <c r="A23" s="70"/>
+      <c r="B23" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A22:A23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2262,19 +2315,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{86567253-966F-4F1D-B2AE-0608F592F601}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BCD417DE-AE4D-4310-B006-24C26EFB9650}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2298,9 +2347,10 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BCD417DE-AE4D-4310-B006-24C26EFB9650}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{86567253-966F-4F1D-B2AE-0608F592F601}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/test_cases/PE-16/TC-1601.xlsx
+++ b/test_cases/PE-16/TC-1601.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Descargas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A83137C5-18A1-49E6-85EC-E614C3FEBB0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D70326E-A87D-4E81-BBB0-AB3EC265C0BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{DCE1F527-8622-40D5-806A-6A7E2BCE07A3}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{DCE1F527-8622-40D5-806A-6A7E2BCE07A3}"/>
   </bookViews>
   <sheets>
     <sheet name="TC - Template" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="89">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -121,9 +121,6 @@
     <t>Pass / Fail / Not executed / Suspended</t>
   </si>
   <si>
-    <t>Navigate to http://demo.guru99.com</t>
-  </si>
-  <si>
     <t>Site should open</t>
   </si>
   <si>
@@ -277,9 +274,6 @@
     <t>TC-1601 covers this scenario</t>
   </si>
   <si>
-    <t>DF-01</t>
-  </si>
-  <si>
     <t>Register User: The additional information and email fields do not exist</t>
   </si>
   <si>
@@ -296,6 +290,18 @@
   </si>
   <si>
     <t>Not as expected</t>
+  </si>
+  <si>
+    <t>As expected</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Navigate to http://127.0.0.1:5000</t>
+  </si>
+  <si>
+    <t>DF-01: ''The additional information and email fields do not exist'</t>
   </si>
 </sst>
 </file>
@@ -790,7 +796,7 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -906,6 +912,54 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="7" xfId="4" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="7" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="20" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="21" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -924,65 +978,29 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="7" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="20" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="21" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="7" xfId="4" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1353,8 +1371,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F3CCAC7-6C0E-44CD-ADA1-CF7A0722318C}">
   <dimension ref="A1:W68"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13:H13"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1365,8 +1383,8 @@
     <col min="4" max="4" width="13.88671875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="28.5546875" customWidth="1"/>
     <col min="6" max="6" width="13.88671875" customWidth="1"/>
-    <col min="7" max="7" width="14.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.33203125" customWidth="1"/>
+    <col min="7" max="7" width="16.109375" customWidth="1"/>
+    <col min="8" max="8" width="17.109375" customWidth="1"/>
     <col min="9" max="9" width="14.5546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="38.44140625" customWidth="1"/>
     <col min="11" max="11" width="14.5546875" bestFit="1" customWidth="1"/>
@@ -1380,40 +1398,40 @@
         <v>0</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="45" t="s">
-        <v>59</v>
-      </c>
-      <c r="E1" s="46"/>
+      <c r="D1" s="61" t="s">
+        <v>58</v>
+      </c>
+      <c r="E1" s="62"/>
     </row>
     <row r="2" spans="1:23" ht="21.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C2" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="53" t="s">
-        <v>60</v>
-      </c>
-      <c r="E2" s="54"/>
-      <c r="G2" s="55" t="s">
+      <c r="D2" s="67" t="s">
+        <v>59</v>
+      </c>
+      <c r="E2" s="68"/>
+      <c r="G2" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="55"/>
-      <c r="I2" s="55"/>
-      <c r="J2" s="55"/>
-      <c r="K2" s="55"/>
-      <c r="L2" s="55"/>
-      <c r="M2" s="55"/>
-      <c r="N2" s="55"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="58"/>
+      <c r="K2" s="58"/>
+      <c r="L2" s="58"/>
+      <c r="M2" s="58"/>
+      <c r="N2" s="58"/>
     </row>
     <row r="3" spans="1:23" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="10" t="s">
@@ -1425,44 +1443,44 @@
         <v>5</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F3" s="1"/>
-      <c r="G3" s="59" t="s">
+      <c r="G3" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="59"/>
-      <c r="I3" s="59" t="s">
+      <c r="H3" s="56"/>
+      <c r="I3" s="56" t="s">
         <v>18</v>
       </c>
-      <c r="J3" s="59"/>
-      <c r="K3" s="59" t="s">
+      <c r="J3" s="56"/>
+      <c r="K3" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="L3" s="59"/>
-      <c r="M3" s="59" t="s">
+      <c r="L3" s="56"/>
+      <c r="M3" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="N3" s="59"/>
+      <c r="N3" s="56"/>
     </row>
     <row r="4" spans="1:23" ht="14.4" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F4" s="2"/>
-      <c r="G4" s="56" t="s">
-        <v>61</v>
-      </c>
-      <c r="H4" s="57"/>
-      <c r="I4" s="56" t="s">
+      <c r="G4" s="59" t="s">
+        <v>60</v>
+      </c>
+      <c r="H4" s="60"/>
+      <c r="I4" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="J4" s="57"/>
-      <c r="K4" s="56" t="s">
+      <c r="J4" s="60"/>
+      <c r="K4" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="L4" s="57"/>
-      <c r="M4" s="56" t="s">
+      <c r="L4" s="60"/>
+      <c r="M4" s="59" t="s">
         <v>22</v>
       </c>
-      <c r="N4" s="57"/>
+      <c r="N4" s="60"/>
     </row>
     <row r="5" spans="1:23" ht="28.2" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A5" s="28" t="s">
@@ -1507,22 +1525,22 @@
     </row>
     <row r="6" spans="1:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G6" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="H6" s="17" t="s">
         <v>86</v>
-      </c>
-      <c r="H6" s="17" t="s">
-        <v>32</v>
       </c>
       <c r="I6" s="16"/>
       <c r="J6" s="17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K6" s="16"/>
       <c r="L6" s="17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M6" s="16"/>
       <c r="N6" s="17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.3">
@@ -1539,22 +1557,22 @@
         <v>10</v>
       </c>
       <c r="G7" s="16" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="H7" s="17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I7" s="16"/>
       <c r="J7" s="17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K7" s="16"/>
       <c r="L7" s="17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M7" s="16"/>
       <c r="N7" s="17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:23" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1568,25 +1586,25 @@
         <v>1</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G8" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="H8" s="17" t="s">
         <v>86</v>
-      </c>
-      <c r="H8" s="17" t="s">
-        <v>32</v>
       </c>
       <c r="I8" s="16"/>
       <c r="J8" s="17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K8" s="16"/>
       <c r="L8" s="17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M8" s="16"/>
       <c r="N8" s="17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:23" ht="21" customHeight="1" x14ac:dyDescent="0.3">
@@ -1594,13 +1612,13 @@
         <v>2</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D9" s="4">
         <v>2</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G9" s="5"/>
       <c r="H9" s="3"/>
@@ -1616,13 +1634,13 @@
         <v>3</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D10" s="4">
         <v>3</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G10" s="5"/>
       <c r="H10" s="3"/>
@@ -1640,7 +1658,7 @@
         <v>4</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="5"/>
@@ -1659,7 +1677,7 @@
         <v>5</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F12" s="1"/>
     </row>
@@ -1670,46 +1688,46 @@
         <v>6</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F13" s="1"/>
-      <c r="G13" s="60" t="s">
-        <v>33</v>
-      </c>
-      <c r="H13" s="60"/>
-      <c r="I13" s="60" t="s">
-        <v>33</v>
-      </c>
-      <c r="J13" s="60"/>
-      <c r="K13" s="60" t="s">
-        <v>33</v>
-      </c>
-      <c r="L13" s="60"/>
-      <c r="M13" s="60" t="s">
-        <v>33</v>
-      </c>
-      <c r="N13" s="60"/>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="G13" s="57" t="s">
+        <v>32</v>
+      </c>
+      <c r="H13" s="57"/>
+      <c r="I13" s="57" t="s">
+        <v>32</v>
+      </c>
+      <c r="J13" s="57"/>
+      <c r="K13" s="57" t="s">
+        <v>32</v>
+      </c>
+      <c r="L13" s="57"/>
+      <c r="M13" s="57" t="s">
+        <v>32</v>
+      </c>
+      <c r="N13" s="57"/>
+    </row>
+    <row r="14" spans="1:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="29"/>
       <c r="B14" s="1"/>
       <c r="D14" s="4">
         <v>7</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F14" s="1"/>
-      <c r="G14" s="58" t="s">
-        <v>80</v>
-      </c>
-      <c r="H14" s="58"/>
-      <c r="I14" s="58"/>
-      <c r="J14" s="58"/>
-      <c r="K14" s="58"/>
-      <c r="L14" s="58"/>
-      <c r="M14" s="58"/>
-      <c r="N14" s="58"/>
+      <c r="G14" s="71" t="s">
+        <v>88</v>
+      </c>
+      <c r="H14" s="72"/>
+      <c r="I14" s="53"/>
+      <c r="J14" s="53"/>
+      <c r="K14" s="53"/>
+      <c r="L14" s="53"/>
+      <c r="M14" s="53"/>
+      <c r="N14" s="53"/>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A15" s="29"/>
@@ -1718,17 +1736,17 @@
         <v>8</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F15" s="1"/>
-      <c r="G15" s="58"/>
-      <c r="H15" s="58"/>
-      <c r="I15" s="58"/>
-      <c r="J15" s="58"/>
-      <c r="K15" s="58"/>
-      <c r="L15" s="58"/>
-      <c r="M15" s="58"/>
-      <c r="N15" s="58"/>
+      <c r="G15" s="73"/>
+      <c r="H15" s="74"/>
+      <c r="I15" s="53"/>
+      <c r="J15" s="53"/>
+      <c r="K15" s="53"/>
+      <c r="L15" s="53"/>
+      <c r="M15" s="53"/>
+      <c r="N15" s="53"/>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A16" s="29"/>
@@ -1737,17 +1755,17 @@
         <v>9</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F16" s="1"/>
-      <c r="G16" s="58"/>
-      <c r="H16" s="58"/>
-      <c r="I16" s="58"/>
-      <c r="J16" s="58"/>
-      <c r="K16" s="58"/>
-      <c r="L16" s="58"/>
-      <c r="M16" s="58"/>
-      <c r="N16" s="58"/>
+      <c r="G16" s="53"/>
+      <c r="H16" s="53"/>
+      <c r="I16" s="53"/>
+      <c r="J16" s="53"/>
+      <c r="K16" s="53"/>
+      <c r="L16" s="53"/>
+      <c r="M16" s="53"/>
+      <c r="N16" s="53"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" s="29"/>
@@ -1756,17 +1774,17 @@
         <v>10</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F17" s="1"/>
-      <c r="G17" s="58"/>
-      <c r="H17" s="58"/>
-      <c r="I17" s="58"/>
-      <c r="J17" s="58"/>
-      <c r="K17" s="58"/>
-      <c r="L17" s="58"/>
-      <c r="M17" s="58"/>
-      <c r="N17" s="58"/>
+      <c r="G17" s="53"/>
+      <c r="H17" s="53"/>
+      <c r="I17" s="53"/>
+      <c r="J17" s="53"/>
+      <c r="K17" s="53"/>
+      <c r="L17" s="53"/>
+      <c r="M17" s="53"/>
+      <c r="N17" s="53"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" s="29"/>
@@ -1775,17 +1793,17 @@
         <v>11</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F18" s="1"/>
-      <c r="G18" s="58"/>
-      <c r="H18" s="58"/>
-      <c r="I18" s="58"/>
-      <c r="J18" s="58"/>
-      <c r="K18" s="58"/>
-      <c r="L18" s="58"/>
-      <c r="M18" s="58"/>
-      <c r="N18" s="58"/>
+      <c r="G18" s="53"/>
+      <c r="H18" s="53"/>
+      <c r="I18" s="53"/>
+      <c r="J18" s="53"/>
+      <c r="K18" s="53"/>
+      <c r="L18" s="53"/>
+      <c r="M18" s="53"/>
+      <c r="N18" s="53"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" s="29"/>
@@ -1794,7 +1812,7 @@
         <v>12</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F19" s="1"/>
     </row>
@@ -1805,7 +1823,7 @@
         <v>13</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F20" s="1"/>
     </row>
@@ -1816,7 +1834,7 @@
         <v>14</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F21" s="1"/>
     </row>
@@ -1827,7 +1845,7 @@
         <v>15</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F22" s="1"/>
     </row>
@@ -1837,30 +1855,30 @@
       <c r="D23" s="1"/>
     </row>
     <row r="25" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="61" t="s">
+      <c r="A25" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="B25" s="63" t="s">
-        <v>50</v>
-      </c>
-      <c r="C25" s="64"/>
-      <c r="D25" s="64"/>
-      <c r="E25" s="65"/>
+      <c r="B25" s="47" t="s">
+        <v>49</v>
+      </c>
+      <c r="C25" s="48"/>
+      <c r="D25" s="48"/>
+      <c r="E25" s="49"/>
       <c r="F25" s="1"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A26" s="62"/>
-      <c r="B26" s="66"/>
-      <c r="C26" s="67"/>
-      <c r="D26" s="67"/>
-      <c r="E26" s="68"/>
+      <c r="A26" s="46"/>
+      <c r="B26" s="50"/>
+      <c r="C26" s="51"/>
+      <c r="D26" s="51"/>
+      <c r="E26" s="52"/>
     </row>
     <row r="27" spans="1:14" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A27" s="22" t="s">
         <v>14</v>
       </c>
       <c r="B27" s="23" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C27" s="24"/>
       <c r="D27" s="22" t="s">
@@ -1874,76 +1892,76 @@
       <c r="A29" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="B29" s="49" t="s">
+      <c r="B29" s="65" t="s">
         <v>24</v>
       </c>
-      <c r="C29" s="50"/>
-      <c r="D29" s="47" t="s">
+      <c r="C29" s="66"/>
+      <c r="D29" s="63" t="s">
         <v>25</v>
       </c>
-      <c r="E29" s="48"/>
+      <c r="E29" s="64"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A30" s="18">
         <v>1</v>
       </c>
-      <c r="B30" s="51" t="s">
+      <c r="B30" s="54" t="s">
+        <v>87</v>
+      </c>
+      <c r="C30" s="55"/>
+      <c r="D30" s="54" t="s">
         <v>28</v>
       </c>
-      <c r="C30" s="52"/>
-      <c r="D30" s="51" t="s">
-        <v>29</v>
-      </c>
-      <c r="E30" s="52"/>
+      <c r="E30" s="55"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A31" s="18">
         <v>2</v>
       </c>
-      <c r="B31" s="51" t="s">
-        <v>56</v>
-      </c>
-      <c r="C31" s="52"/>
-      <c r="D31" s="51" t="s">
-        <v>54</v>
-      </c>
-      <c r="E31" s="52"/>
+      <c r="B31" s="54" t="s">
+        <v>55</v>
+      </c>
+      <c r="C31" s="55"/>
+      <c r="D31" s="54" t="s">
+        <v>53</v>
+      </c>
+      <c r="E31" s="55"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A32" s="18">
         <v>3</v>
       </c>
-      <c r="B32" s="51" t="s">
-        <v>31</v>
-      </c>
-      <c r="C32" s="52"/>
-      <c r="D32" s="51" t="s">
-        <v>51</v>
-      </c>
-      <c r="E32" s="52"/>
+      <c r="B32" s="54" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32" s="55"/>
+      <c r="D32" s="54" t="s">
+        <v>50</v>
+      </c>
+      <c r="E32" s="55"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="18">
         <v>4</v>
       </c>
-      <c r="B33" s="51"/>
-      <c r="C33" s="52"/>
-      <c r="D33" s="51"/>
-      <c r="E33" s="52"/>
+      <c r="B33" s="54"/>
+      <c r="C33" s="55"/>
+      <c r="D33" s="54"/>
+      <c r="E33" s="55"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="18"/>
-      <c r="B34" s="51"/>
-      <c r="C34" s="52"/>
-      <c r="D34" s="51"/>
-      <c r="E34" s="52"/>
+      <c r="B34" s="54"/>
+      <c r="C34" s="55"/>
+      <c r="D34" s="54"/>
+      <c r="E34" s="55"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="18"/>
-      <c r="B35" s="51"/>
-      <c r="C35" s="52"/>
-      <c r="D35" s="51"/>
-      <c r="E35" s="52"/>
+      <c r="B35" s="54"/>
+      <c r="C35" s="55"/>
+      <c r="D35" s="54"/>
+      <c r="E35" s="55"/>
     </row>
     <row r="38" spans="1:5" ht="26.1" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="39" spans="1:5" ht="26.1" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1954,44 +1972,8 @@
     <row r="67" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="68" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <mergeCells count="51">
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="B25:E26"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="M18:N18"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="G2:N2"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="M17:N17"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="I15:J15"/>
+  <mergeCells count="50">
+    <mergeCell ref="G14:H15"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="D29:E29"/>
     <mergeCell ref="B29:C29"/>
@@ -2006,6 +1988,41 @@
     <mergeCell ref="D30:E30"/>
     <mergeCell ref="D31:E31"/>
     <mergeCell ref="D2:E2"/>
+    <mergeCell ref="G2:N2"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B25:E26"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="G18:H18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -2016,8 +2033,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5CC923C-478B-4E80-A10B-16C9D457E56E}">
   <dimension ref="A1:B23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2028,10 +2045,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="30" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B1" s="31" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -2040,10 +2057,10 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="30" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B3" s="44" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -2052,22 +2069,22 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="33" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B5" s="34" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="35"/>
       <c r="B6" s="36" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="37"/>
       <c r="B7" s="38" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -2076,10 +2093,10 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="39" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B9" s="40" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -2088,10 +2105,10 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="39" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B11" s="40" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="161.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -2100,16 +2117,16 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="33" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B13" s="34" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="37"/>
       <c r="B14" s="38" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
@@ -2118,10 +2135,10 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="39" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B16" s="41" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -2130,10 +2147,10 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="B18" s="40" t="s">
         <v>70</v>
-      </c>
-      <c r="B18" s="40" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
@@ -2142,10 +2159,10 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="39" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B20" s="40" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
@@ -2154,10 +2171,10 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="69" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B22" s="42" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
@@ -2174,12 +2191,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2315,15 +2329,19 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BCD417DE-AE4D-4310-B006-24C26EFB9650}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{86567253-966F-4F1D-B2AE-0608F592F601}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2347,10 +2365,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{86567253-966F-4F1D-B2AE-0608F592F601}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BCD417DE-AE4D-4310-B006-24C26EFB9650}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>